--- a/AnnieLake/AnnieRain.xlsx
+++ b/AnnieLake/AnnieRain.xlsx
@@ -66,10 +66,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -368,13 +368,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -386,6362 +387,6362 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>39521</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>39522</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>39523</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>39524</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>39525</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>39526</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>39527</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>39528</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>5.3339999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>39529</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>39530</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>26.92</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>39531</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>39532</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>39533</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>39534</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>39535</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>39536</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>39537</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>39538</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1.778</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>39539</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>39540</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>16.260000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>39541</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>3.048</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>39542</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>39543</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>1.524</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>39544</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>7.8739999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>39545</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>40.130000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>39546</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>39547</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>4.5720000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>39548</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>39549</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>39550</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>39551</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>39552</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>39553</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>39554</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>39555</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>39556</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>39557</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>39558</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>39559</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>39560</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>39561</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>39562</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>39563</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>39564</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>39565</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>39566</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>39567</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>39568</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>39569</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>39570</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>39571</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>39572</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>39573</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>39574</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>39575</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>39576</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>39577</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>1.27</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>39578</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>39579</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>39580</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>39581</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>39582</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>39583</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>39584</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>39585</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>39586</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>39587</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>1.27</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>39588</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>39589</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>30.48</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>39590</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>39591</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>28.19</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>39592</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>39593</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>39594</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>39595</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>39596</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>39597</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>39598</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>39599</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>39600</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>39601</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>39602</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>1.016</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>39603</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>39604</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>39605</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>39606</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>39607</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>39608</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>2.032</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>39609</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>39610</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>31.5</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>39611</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>39612</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>39613</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="2">
+      <c r="A95" s="3">
         <v>39614</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <v>39615</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>11.43</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <v>39616</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="2">
+      <c r="A98" s="3">
         <v>39617</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>2.286</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="2">
+      <c r="A99" s="3">
         <v>39618</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>17.53</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="2">
+      <c r="A100" s="3">
         <v>39619</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="2">
+      <c r="A101" s="3">
         <v>39620</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <v>39621</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="2">
+      <c r="A103" s="3">
         <v>39622</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="2">
         <v>52.58</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="2">
+      <c r="A104" s="3">
         <v>39623</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="2">
+      <c r="A105" s="3">
         <v>39624</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="2">
         <v>16.510000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="2">
+      <c r="A106" s="3">
         <v>39625</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="2">
         <v>31.5</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="2">
+      <c r="A107" s="3">
         <v>39626</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>44.96</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="2">
+      <c r="A108" s="3">
         <v>39627</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="2">
         <v>4.0640000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="2">
+      <c r="A109" s="3">
         <v>39628</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="2">
         <v>4.5720000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="2">
+      <c r="A110" s="3">
         <v>39629</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="2">
+      <c r="A111" s="3">
         <v>39630</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="2">
+      <c r="A112" s="3">
         <v>39631</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>1.016</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="2">
+      <c r="A113" s="3">
         <v>39632</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="2">
         <v>68.83</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="2">
+      <c r="A114" s="3">
         <v>39633</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="2">
         <v>2.286</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="2">
+      <c r="A115" s="3">
         <v>39634</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="2">
         <v>7.1120000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="2">
+      <c r="A116" s="3">
         <v>39635</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="2">
+      <c r="A117" s="3">
         <v>39636</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="2">
+      <c r="A118" s="3">
         <v>39637</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>18.03</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="2">
+      <c r="A119" s="3">
         <v>39638</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="2">
         <v>1.524</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="2">
+      <c r="A120" s="3">
         <v>39639</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="2">
+      <c r="A121" s="3">
         <v>39640</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>39641</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="2">
+      <c r="A123" s="3">
         <v>39642</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="2">
         <v>40.39</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="2">
+      <c r="A124" s="3">
         <v>39643</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="2">
         <v>4.3179999999999996</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="2">
+      <c r="A125" s="3">
         <v>39644</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="2">
         <v>19.05</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="2">
+      <c r="A126" s="3">
         <v>39645</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="2">
         <v>13.97</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="2">
+      <c r="A127" s="3">
         <v>39646</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="2">
         <v>15.49</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="2">
+      <c r="A128" s="3">
         <v>39647</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="2">
+      <c r="A129" s="3">
         <v>39648</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="2">
+      <c r="A130" s="3">
         <v>39649</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="2">
         <v>4.8259999999999996</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="2">
+      <c r="A131" s="3">
         <v>39650</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="2">
+      <c r="A132" s="3">
         <v>39651</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="2">
+      <c r="A133" s="3">
         <v>39652</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="2">
         <v>32.26</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="2">
+      <c r="A134" s="3">
         <v>39653</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="2">
         <v>6.6040000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="2">
+      <c r="A135" s="3">
         <v>39654</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="2">
         <v>1.524</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="2">
+      <c r="A136" s="3">
         <v>39655</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="2">
+      <c r="A137" s="3">
         <v>39656</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="2">
+      <c r="A138" s="3">
         <v>39657</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="2">
         <v>7.3659999999999997</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="2">
+      <c r="A139" s="3">
         <v>39658</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="2">
+      <c r="A140" s="3">
         <v>39659</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="2">
+      <c r="A141" s="3">
         <v>39660</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="2">
         <v>18.8</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="2">
+      <c r="A142" s="3">
         <v>39661</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="2">
+      <c r="A143" s="3">
         <v>39662</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="2">
+      <c r="A144" s="3">
         <v>39663</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="2">
+      <c r="A145" s="3">
         <v>39664</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="2">
+      <c r="A146" s="3">
         <v>39665</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="2">
         <v>3.048</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="2">
+      <c r="A147" s="3">
         <v>39666</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="2">
         <v>1.27</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="2">
+      <c r="A148" s="3">
         <v>39667</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="2">
+      <c r="A149" s="3">
         <v>39668</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="2">
         <v>35.56</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="2">
+      <c r="A150" s="3">
         <v>39669</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="2">
+      <c r="A151" s="3">
         <v>39670</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="2">
         <v>3.81</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="2">
+      <c r="A152" s="3">
         <v>39671</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="2">
         <v>3.81</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="2">
+      <c r="A153" s="3">
         <v>39672</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="2">
+      <c r="A154" s="3">
         <v>39673</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="2">
         <v>7.62</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="2">
+      <c r="A155" s="3">
         <v>39674</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="2">
+      <c r="A156" s="3">
         <v>39675</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="2">
         <v>10.41</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="2">
+      <c r="A157" s="3">
         <v>39676</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="2">
+      <c r="A158" s="3">
         <v>39677</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="2">
+      <c r="A159" s="3">
         <v>39678</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="2">
+      <c r="A160" s="3">
         <v>39679</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="2">
         <v>52.83</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="2">
+      <c r="A161" s="3">
         <v>39680</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="2">
         <v>77.72</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="2">
+      <c r="A162" s="3">
         <v>39681</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="2">
+      <c r="A163" s="3">
         <v>39682</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="2">
         <v>10.41</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="2">
+      <c r="A164" s="3">
         <v>39683</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="2">
         <v>11.18</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="2">
+      <c r="A165" s="3">
         <v>39684</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="2">
+      <c r="A166" s="3">
         <v>39685</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="2">
         <v>19.809999999999999</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="2">
+      <c r="A167" s="3">
         <v>39686</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="2">
         <v>26.92</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="2">
+      <c r="A168" s="3">
         <v>39687</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="2">
         <v>2.286</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="2">
+      <c r="A169" s="3">
         <v>39688</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="2">
         <v>3.302</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="2">
+      <c r="A170" s="3">
         <v>39689</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="2">
         <v>1.524</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="2">
+      <c r="A171" s="3">
         <v>39690</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="2">
+      <c r="A172" s="3">
         <v>39691</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="2">
         <v>6.35</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="2">
+      <c r="A173" s="3">
         <v>39692</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="2">
         <v>6.6040000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="2">
+      <c r="A174" s="3">
         <v>39693</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="2">
+      <c r="A175" s="3">
         <v>39694</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="2">
+      <c r="A176" s="3">
         <v>39695</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="2">
+      <c r="A177" s="3">
         <v>39696</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="2">
         <v>11.18</v>
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="2">
+      <c r="A178" s="3">
         <v>39697</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="2">
         <v>10.41</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="2">
+      <c r="A179" s="3">
         <v>39698</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="2">
+      <c r="A180" s="3">
         <v>39699</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="2">
+      <c r="A181" s="3">
         <v>39700</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="2">
+      <c r="A182" s="3">
         <v>39701</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="2">
+      <c r="A183" s="3">
         <v>39702</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="2">
+      <c r="A184" s="3">
         <v>39703</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="2">
+      <c r="A185" s="3">
         <v>39704</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="2">
+      <c r="A186" s="3">
         <v>39705</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="2">
+      <c r="A187" s="3">
         <v>39706</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="2">
+      <c r="A188" s="3">
         <v>39707</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="2">
+      <c r="A189" s="3">
         <v>39708</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="2">
+      <c r="A190" s="3">
         <v>39709</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="2">
+      <c r="A191" s="3">
         <v>39710</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="2">
+      <c r="A192" s="3">
         <v>39711</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="2">
+      <c r="A193" s="3">
         <v>39712</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="2">
         <v>1.27</v>
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="2">
+      <c r="A194" s="3">
         <v>39713</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="2">
+      <c r="A195" s="3">
         <v>39714</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="2">
         <v>22.1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="2">
+      <c r="A196" s="3">
         <v>39715</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="2">
+      <c r="A197" s="3">
         <v>39716</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="2">
+      <c r="A198" s="3">
         <v>39717</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="2">
+      <c r="A199" s="3">
         <v>39718</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="2">
+      <c r="A200" s="3">
         <v>39719</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="2">
+      <c r="A201" s="3">
         <v>39720</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="2">
+      <c r="A202" s="3">
         <v>39721</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="2">
         <v>22.35</v>
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="2">
+      <c r="A203" s="3">
         <v>39722</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203" s="2">
         <v>4.3179999999999996</v>
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="2">
+      <c r="A204" s="3">
         <v>39723</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="2">
+      <c r="A205" s="3">
         <v>39724</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="2">
+      <c r="A206" s="3">
         <v>39725</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="2">
+      <c r="A207" s="3">
         <v>39726</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="2">
+      <c r="A208" s="3">
         <v>39727</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="2">
+      <c r="A209" s="3">
         <v>39728</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209" s="2">
         <v>1.016</v>
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="2">
+      <c r="A210" s="3">
         <v>39729</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="2">
+      <c r="A211" s="3">
         <v>39730</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="2">
         <v>7.1120000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="2">
+      <c r="A212" s="3">
         <v>39731</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212" s="2">
         <v>52.07</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="2">
+      <c r="A213" s="3">
         <v>39732</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="2">
+      <c r="A214" s="3">
         <v>39733</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="2">
+      <c r="A215" s="3">
         <v>39734</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="2">
+      <c r="A216" s="3">
         <v>39735</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216" s="2">
         <v>4.3179999999999996</v>
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="2">
+      <c r="A217" s="3">
         <v>39736</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="2">
+      <c r="A218" s="3">
         <v>39737</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="2">
+      <c r="A219" s="3">
         <v>39738</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="2">
+      <c r="A220" s="3">
         <v>39739</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="2">
+      <c r="A221" s="3">
         <v>39740</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="2">
+      <c r="A222" s="3">
         <v>39741</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="2">
+      <c r="A223" s="3">
         <v>39742</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="2">
+      <c r="A224" s="3">
         <v>39743</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="2">
+      <c r="A225" s="3">
         <v>39744</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="2">
+      <c r="A226" s="3">
         <v>39745</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226" s="2">
         <v>11.68</v>
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="2">
+      <c r="A227" s="3">
         <v>39746</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B227" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="2">
+      <c r="A228" s="3">
         <v>39747</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228" s="2">
         <v>2.54</v>
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="2">
+      <c r="A229" s="3">
         <v>39748</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="2">
+      <c r="A230" s="3">
         <v>39749</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="2">
+      <c r="A231" s="3">
         <v>39750</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="2">
+      <c r="A232" s="3">
         <v>39751</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="2">
+      <c r="A233" s="3">
         <v>39752</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="2">
+      <c r="A234" s="3">
         <v>39753</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="2">
+      <c r="A235" s="3">
         <v>39754</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="2">
+      <c r="A236" s="3">
         <v>39755</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="2">
+      <c r="A237" s="3">
         <v>39756</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="2">
+      <c r="A238" s="3">
         <v>39757</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B238" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="2">
+      <c r="A239" s="3">
         <v>39758</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="2">
+      <c r="A240" s="3">
         <v>39759</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="2">
+      <c r="A241" s="3">
         <v>39760</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="2">
+      <c r="A242" s="3">
         <v>39761</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="2">
+      <c r="A243" s="3">
         <v>39762</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B243" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="2">
+      <c r="A244" s="3">
         <v>39763</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B244" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="2">
+      <c r="A245" s="3">
         <v>39764</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="2">
+      <c r="A246" s="3">
         <v>39765</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="2">
+      <c r="A247" s="3">
         <v>39766</v>
       </c>
-      <c r="B247" s="3">
+      <c r="B247" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="2">
+      <c r="A248" s="3">
         <v>39767</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B248" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="2">
+      <c r="A249" s="3">
         <v>39768</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B249" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="2">
+      <c r="A250" s="3">
         <v>39769</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B250" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="2">
+      <c r="A251" s="3">
         <v>39770</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B251" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="2">
+      <c r="A252" s="3">
         <v>39771</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="2">
+      <c r="A253" s="3">
         <v>39772</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="2">
+      <c r="A254" s="3">
         <v>39773</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="2">
+      <c r="A255" s="3">
         <v>39774</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B255" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="2">
+      <c r="A256" s="3">
         <v>39775</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="2">
+      <c r="A257" s="3">
         <v>39776</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="2">
+      <c r="A258" s="3">
         <v>39777</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="2">
+      <c r="A259" s="3">
         <v>39778</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B259" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="2">
+      <c r="A260" s="3">
         <v>39779</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="2">
+      <c r="A261" s="3">
         <v>39780</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B261" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="2">
+      <c r="A262" s="3">
         <v>39781</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="2">
+      <c r="A263" s="3">
         <v>39782</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B263" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="2">
+      <c r="A264" s="3">
         <v>39783</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264" s="2">
         <v>8.89</v>
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="2">
+      <c r="A265" s="3">
         <v>39784</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" s="2">
         <v>1.016</v>
       </c>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="2">
+      <c r="A266" s="3">
         <v>39785</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B266" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="2">
+      <c r="A267" s="3">
         <v>39786</v>
       </c>
-      <c r="B267" s="3">
+      <c r="B267" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="2">
+      <c r="A268" s="3">
         <v>39787</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="2">
+      <c r="A269" s="3">
         <v>39788</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B269" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="2">
+      <c r="A270" s="3">
         <v>39789</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B270" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="2">
+      <c r="A271" s="3">
         <v>39790</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B271" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="2">
+      <c r="A272" s="3">
         <v>39791</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="2">
+      <c r="A273" s="3">
         <v>39792</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B273" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="2">
+      <c r="A274" s="3">
         <v>39793</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B274" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="2">
+      <c r="A275" s="3">
         <v>39794</v>
       </c>
-      <c r="B275" s="3">
+      <c r="B275" s="2">
         <v>26.42</v>
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="2">
+      <c r="A276" s="3">
         <v>39795</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B276" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="2">
+      <c r="A277" s="3">
         <v>39796</v>
       </c>
-      <c r="B277" s="3">
+      <c r="B277" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="2">
+      <c r="A278" s="3">
         <v>39797</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B278" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="2">
+      <c r="A279" s="3">
         <v>39798</v>
       </c>
-      <c r="B279" s="3">
+      <c r="B279" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="2">
+      <c r="A280" s="3">
         <v>39799</v>
       </c>
-      <c r="B280" s="3">
+      <c r="B280" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="2">
+      <c r="A281" s="3">
         <v>39800</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B281" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="2">
+      <c r="A282" s="3">
         <v>39801</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B282" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="2">
+      <c r="A283" s="3">
         <v>39802</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B283" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="2">
+      <c r="A284" s="3">
         <v>39803</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B284" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="2">
+      <c r="A285" s="3">
         <v>39804</v>
       </c>
-      <c r="B285" s="3">
+      <c r="B285" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="2">
+      <c r="A286" s="3">
         <v>39805</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B286" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="2">
+      <c r="A287" s="3">
         <v>39806</v>
       </c>
-      <c r="B287" s="3">
+      <c r="B287" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="2">
+      <c r="A288" s="3">
         <v>39807</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B288" s="2">
         <v>3.556</v>
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="2">
+      <c r="A289" s="3">
         <v>39808</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B289" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="2">
+      <c r="A290" s="3">
         <v>39809</v>
       </c>
-      <c r="B290" s="3">
+      <c r="B290" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="2">
+      <c r="A291" s="3">
         <v>39810</v>
       </c>
-      <c r="B291" s="3">
+      <c r="B291" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="2">
+      <c r="A292" s="3">
         <v>39811</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B292" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="2">
+      <c r="A293" s="3">
         <v>39812</v>
       </c>
-      <c r="B293" s="3">
+      <c r="B293" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="2">
+      <c r="A294" s="3">
         <v>39813</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B294" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="2">
+      <c r="A295" s="3">
         <v>39814</v>
       </c>
-      <c r="B295" s="3">
+      <c r="B295" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="2">
+      <c r="A296" s="3">
         <v>39815</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B296" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="2">
+      <c r="A297" s="3">
         <v>39816</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B297" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="2">
+      <c r="A298" s="3">
         <v>39817</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B298" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="2">
+      <c r="A299" s="3">
         <v>39818</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B299" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="2">
+      <c r="A300" s="3">
         <v>39819</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B300" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="2">
+      <c r="A301" s="3">
         <v>39820</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B301" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="2">
+      <c r="A302" s="3">
         <v>39821</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B302" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="2">
+      <c r="A303" s="3">
         <v>39822</v>
       </c>
-      <c r="B303" s="3">
+      <c r="B303" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="2">
+      <c r="A304" s="3">
         <v>39823</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B304" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="2">
+      <c r="A305" s="3">
         <v>39824</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B305" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="2">
+      <c r="A306" s="3">
         <v>39825</v>
       </c>
-      <c r="B306" s="3">
+      <c r="B306" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="2">
+      <c r="A307" s="3">
         <v>39826</v>
       </c>
-      <c r="B307" s="3">
+      <c r="B307" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="2">
+      <c r="A308" s="3">
         <v>39827</v>
       </c>
-      <c r="B308" s="3">
+      <c r="B308" s="2">
         <v>3.81</v>
       </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="2">
+      <c r="A309" s="3">
         <v>39828</v>
       </c>
-      <c r="B309" s="3">
+      <c r="B309" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="2">
+      <c r="A310" s="3">
         <v>39829</v>
       </c>
-      <c r="B310" s="3">
+      <c r="B310" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="2">
+      <c r="A311" s="3">
         <v>39830</v>
       </c>
-      <c r="B311" s="3">
+      <c r="B311" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="2">
+      <c r="A312" s="3">
         <v>39831</v>
       </c>
-      <c r="B312" s="3">
+      <c r="B312" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="2">
+      <c r="A313" s="3">
         <v>39832</v>
       </c>
-      <c r="B313" s="3">
+      <c r="B313" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="2">
+      <c r="A314" s="3">
         <v>39833</v>
       </c>
-      <c r="B314" s="3">
+      <c r="B314" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="2">
+      <c r="A315" s="3">
         <v>39834</v>
       </c>
-      <c r="B315" s="3">
+      <c r="B315" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="2">
+      <c r="A316" s="3">
         <v>39835</v>
       </c>
-      <c r="B316" s="3">
+      <c r="B316" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="2">
+      <c r="A317" s="3">
         <v>39836</v>
       </c>
-      <c r="B317" s="3">
+      <c r="B317" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="2">
+      <c r="A318" s="3">
         <v>39837</v>
       </c>
-      <c r="B318" s="3">
+      <c r="B318" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="2">
+      <c r="A319" s="3">
         <v>39838</v>
       </c>
-      <c r="B319" s="3">
+      <c r="B319" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="2">
+      <c r="A320" s="3">
         <v>39839</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B320" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="2">
+      <c r="A321" s="3">
         <v>39840</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B321" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="2">
+      <c r="A322" s="3">
         <v>39841</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B322" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="2">
+      <c r="A323" s="3">
         <v>39842</v>
       </c>
-      <c r="B323" s="3">
+      <c r="B323" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="2">
+      <c r="A324" s="3">
         <v>39843</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B324" s="2">
         <v>5.08</v>
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="2">
+      <c r="A325" s="3">
         <v>39844</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B325" s="2">
         <v>6.8579999999999997</v>
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="2">
+      <c r="A326" s="3">
         <v>39845</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B326" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="2">
+      <c r="A327" s="3">
         <v>39846</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B327" s="2">
         <v>2.794</v>
       </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="2">
+      <c r="A328" s="3">
         <v>39847</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B328" s="2">
         <v>5.8419999999999996</v>
       </c>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="2">
+      <c r="A329" s="3">
         <v>39848</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B329" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="2">
+      <c r="A330" s="3">
         <v>39849</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B330" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="2">
+      <c r="A331" s="3">
         <v>39850</v>
       </c>
-      <c r="B331" s="3">
+      <c r="B331" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="2">
+      <c r="A332" s="3">
         <v>39851</v>
       </c>
-      <c r="B332" s="3">
+      <c r="B332" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="2">
+      <c r="A333" s="3">
         <v>39852</v>
       </c>
-      <c r="B333" s="3">
+      <c r="B333" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="2">
+      <c r="A334" s="3">
         <v>39853</v>
       </c>
-      <c r="B334" s="3">
+      <c r="B334" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="2">
+      <c r="A335" s="3">
         <v>39854</v>
       </c>
-      <c r="B335" s="3">
+      <c r="B335" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="2">
+      <c r="A336" s="3">
         <v>39855</v>
       </c>
-      <c r="B336" s="3">
+      <c r="B336" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="2">
+      <c r="A337" s="3">
         <v>39856</v>
       </c>
-      <c r="B337" s="3">
+      <c r="B337" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="2">
+      <c r="A338" s="3">
         <v>39857</v>
       </c>
-      <c r="B338" s="3">
+      <c r="B338" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="2">
+      <c r="A339" s="3">
         <v>39858</v>
       </c>
-      <c r="B339" s="3">
+      <c r="B339" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="2">
+      <c r="A340" s="3">
         <v>39859</v>
       </c>
-      <c r="B340" s="3">
+      <c r="B340" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="2">
+      <c r="A341" s="3">
         <v>39860</v>
       </c>
-      <c r="B341" s="3">
+      <c r="B341" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="2">
+      <c r="A342" s="3">
         <v>39861</v>
       </c>
-      <c r="B342" s="3">
+      <c r="B342" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="2">
+      <c r="A343" s="3">
         <v>39862</v>
       </c>
-      <c r="B343" s="3">
+      <c r="B343" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="2">
+      <c r="A344" s="3">
         <v>39863</v>
       </c>
-      <c r="B344" s="3">
+      <c r="B344" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="2">
+      <c r="A345" s="3">
         <v>39864</v>
       </c>
-      <c r="B345" s="3">
+      <c r="B345" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="2">
+      <c r="A346" s="3">
         <v>39865</v>
       </c>
-      <c r="B346" s="3">
+      <c r="B346" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="2">
+      <c r="A347" s="3">
         <v>39866</v>
       </c>
-      <c r="B347" s="3">
+      <c r="B347" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="2">
+      <c r="A348" s="3">
         <v>39867</v>
       </c>
-      <c r="B348" s="3">
+      <c r="B348" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="2">
+      <c r="A349" s="3">
         <v>39868</v>
       </c>
-      <c r="B349" s="3">
+      <c r="B349" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="2">
+      <c r="A350" s="3">
         <v>39869</v>
       </c>
-      <c r="B350" s="3">
+      <c r="B350" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="2">
+      <c r="A351" s="3">
         <v>39870</v>
       </c>
-      <c r="B351" s="3">
+      <c r="B351" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="2">
+      <c r="A352" s="3">
         <v>39871</v>
       </c>
-      <c r="B352" s="3">
+      <c r="B352" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="2">
+      <c r="A353" s="3">
         <v>39872</v>
       </c>
-      <c r="B353" s="3">
+      <c r="B353" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="2">
+      <c r="A354" s="3">
         <v>39873</v>
       </c>
-      <c r="B354" s="3">
+      <c r="B354" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="2">
+      <c r="A355" s="3">
         <v>39874</v>
       </c>
-      <c r="B355" s="3">
+      <c r="B355" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="2">
+      <c r="A356" s="3">
         <v>39875</v>
       </c>
-      <c r="B356" s="3">
+      <c r="B356" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="2">
+      <c r="A357" s="3">
         <v>39876</v>
       </c>
-      <c r="B357" s="3">
+      <c r="B357" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="2">
+      <c r="A358" s="3">
         <v>39877</v>
       </c>
-      <c r="B358" s="3">
+      <c r="B358" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="2">
+      <c r="A359" s="3">
         <v>39878</v>
       </c>
-      <c r="B359" s="3">
+      <c r="B359" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="2">
+      <c r="A360" s="3">
         <v>39879</v>
       </c>
-      <c r="B360" s="3">
+      <c r="B360" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="2">
+      <c r="A361" s="3">
         <v>39880</v>
       </c>
-      <c r="B361" s="3">
+      <c r="B361" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="2">
+      <c r="A362" s="3">
         <v>39881</v>
       </c>
-      <c r="B362" s="3">
+      <c r="B362" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="2">
+      <c r="A363" s="3">
         <v>39882</v>
       </c>
-      <c r="B363" s="3">
+      <c r="B363" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="2">
+      <c r="A364" s="3">
         <v>39883</v>
       </c>
-      <c r="B364" s="3">
+      <c r="B364" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="2">
+      <c r="A365" s="3">
         <v>39884</v>
       </c>
-      <c r="B365" s="3">
+      <c r="B365" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="2">
+      <c r="A366" s="3">
         <v>39885</v>
       </c>
-      <c r="B366" s="3">
+      <c r="B366" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:2">
-      <c r="A367" s="2">
+      <c r="A367" s="3">
         <v>39886</v>
       </c>
-      <c r="B367" s="3">
+      <c r="B367" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="2">
+      <c r="A368" s="3">
         <v>39887</v>
       </c>
-      <c r="B368" s="3">
+      <c r="B368" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:2">
-      <c r="A369" s="2">
+      <c r="A369" s="3">
         <v>39888</v>
       </c>
-      <c r="B369" s="3">
+      <c r="B369" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:2">
-      <c r="A370" s="2">
+      <c r="A370" s="3">
         <v>39889</v>
       </c>
-      <c r="B370" s="3">
+      <c r="B370" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:2">
-      <c r="A371" s="2">
+      <c r="A371" s="3">
         <v>39890</v>
       </c>
-      <c r="B371" s="3">
+      <c r="B371" s="2">
         <v>8.89</v>
       </c>
     </row>
     <row r="372" spans="1:2">
-      <c r="A372" s="2">
+      <c r="A372" s="3">
         <v>39891</v>
       </c>
-      <c r="B372" s="3">
+      <c r="B372" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:2">
-      <c r="A373" s="2">
+      <c r="A373" s="3">
         <v>39892</v>
       </c>
-      <c r="B373" s="3">
+      <c r="B373" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="374" spans="1:2">
-      <c r="A374" s="2">
+      <c r="A374" s="3">
         <v>39893</v>
       </c>
-      <c r="B374" s="3">
+      <c r="B374" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="375" spans="1:2">
-      <c r="A375" s="2">
+      <c r="A375" s="3">
         <v>39894</v>
       </c>
-      <c r="B375" s="3">
+      <c r="B375" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:2">
-      <c r="A376" s="2">
+      <c r="A376" s="3">
         <v>39895</v>
       </c>
-      <c r="B376" s="3">
+      <c r="B376" s="2">
         <v>3.048</v>
       </c>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="2">
+      <c r="A377" s="3">
         <v>39896</v>
       </c>
-      <c r="B377" s="3">
+      <c r="B377" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="378" spans="1:2">
-      <c r="A378" s="2">
+      <c r="A378" s="3">
         <v>39897</v>
       </c>
-      <c r="B378" s="3">
+      <c r="B378" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:2">
-      <c r="A379" s="2">
+      <c r="A379" s="3">
         <v>39898</v>
       </c>
-      <c r="B379" s="3">
+      <c r="B379" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:2">
-      <c r="A380" s="2">
+      <c r="A380" s="3">
         <v>39899</v>
       </c>
-      <c r="B380" s="3">
+      <c r="B380" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:2">
-      <c r="A381" s="2">
+      <c r="A381" s="3">
         <v>39900</v>
       </c>
-      <c r="B381" s="3">
+      <c r="B381" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:2">
-      <c r="A382" s="2">
+      <c r="A382" s="3">
         <v>39901</v>
       </c>
-      <c r="B382" s="3">
+      <c r="B382" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:2">
-      <c r="A383" s="2">
+      <c r="A383" s="3">
         <v>39902</v>
       </c>
-      <c r="B383" s="3">
+      <c r="B383" s="2">
         <v>7.8739999999999997</v>
       </c>
     </row>
     <row r="384" spans="1:2">
-      <c r="A384" s="2">
+      <c r="A384" s="3">
         <v>39903</v>
       </c>
-      <c r="B384" s="3">
+      <c r="B384" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="385" spans="1:2">
-      <c r="A385" s="2">
+      <c r="A385" s="3">
         <v>39904</v>
       </c>
-      <c r="B385" s="3">
+      <c r="B385" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="2">
+      <c r="A386" s="3">
         <v>39905</v>
       </c>
-      <c r="B386" s="3">
+      <c r="B386" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:2">
-      <c r="A387" s="2">
+      <c r="A387" s="3">
         <v>39906</v>
       </c>
-      <c r="B387" s="3">
+      <c r="B387" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:2">
-      <c r="A388" s="2">
+      <c r="A388" s="3">
         <v>39907</v>
       </c>
-      <c r="B388" s="3">
+      <c r="B388" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="389" spans="1:2">
-      <c r="A389" s="2">
+      <c r="A389" s="3">
         <v>39908</v>
       </c>
-      <c r="B389" s="3">
+      <c r="B389" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:2">
-      <c r="A390" s="2">
+      <c r="A390" s="3">
         <v>39909</v>
       </c>
-      <c r="B390" s="3">
+      <c r="B390" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:2">
-      <c r="A391" s="2">
+      <c r="A391" s="3">
         <v>39910</v>
       </c>
-      <c r="B391" s="3">
+      <c r="B391" s="2">
         <v>1.016</v>
       </c>
     </row>
     <row r="392" spans="1:2">
-      <c r="A392" s="2">
+      <c r="A392" s="3">
         <v>39911</v>
       </c>
-      <c r="B392" s="3">
+      <c r="B392" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:2">
-      <c r="A393" s="2">
+      <c r="A393" s="3">
         <v>39912</v>
       </c>
-      <c r="B393" s="3">
+      <c r="B393" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:2">
-      <c r="A394" s="2">
+      <c r="A394" s="3">
         <v>39913</v>
       </c>
-      <c r="B394" s="3">
+      <c r="B394" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="2">
+      <c r="A395" s="3">
         <v>39914</v>
       </c>
-      <c r="B395" s="3">
+      <c r="B395" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:2">
-      <c r="A396" s="2">
+      <c r="A396" s="3">
         <v>39915</v>
       </c>
-      <c r="B396" s="3">
+      <c r="B396" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:2">
-      <c r="A397" s="2">
+      <c r="A397" s="3">
         <v>39916</v>
       </c>
-      <c r="B397" s="3">
+      <c r="B397" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:2">
-      <c r="A398" s="2">
+      <c r="A398" s="3">
         <v>39917</v>
       </c>
-      <c r="B398" s="3">
+      <c r="B398" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="2">
+      <c r="A399" s="3">
         <v>39918</v>
       </c>
-      <c r="B399" s="3">
+      <c r="B399" s="2">
         <v>10.41</v>
       </c>
     </row>
     <row r="400" spans="1:2">
-      <c r="A400" s="2">
+      <c r="A400" s="3">
         <v>39919</v>
       </c>
-      <c r="B400" s="3">
+      <c r="B400" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:2">
-      <c r="A401" s="2">
+      <c r="A401" s="3">
         <v>39920</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B401" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:2">
-      <c r="A402" s="2">
+      <c r="A402" s="3">
         <v>39921</v>
       </c>
-      <c r="B402" s="3">
+      <c r="B402" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:2">
-      <c r="A403" s="2">
+      <c r="A403" s="3">
         <v>39922</v>
       </c>
-      <c r="B403" s="3">
+      <c r="B403" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:2">
-      <c r="A404" s="2">
+      <c r="A404" s="3">
         <v>39923</v>
       </c>
-      <c r="B404" s="3">
+      <c r="B404" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="2">
+      <c r="A405" s="3">
         <v>39924</v>
       </c>
-      <c r="B405" s="3">
+      <c r="B405" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:2">
-      <c r="A406" s="2">
+      <c r="A406" s="3">
         <v>39925</v>
       </c>
-      <c r="B406" s="3">
+      <c r="B406" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:2">
-      <c r="A407" s="2">
+      <c r="A407" s="3">
         <v>39926</v>
       </c>
-      <c r="B407" s="3">
+      <c r="B407" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:2">
-      <c r="A408" s="2">
+      <c r="A408" s="3">
         <v>39927</v>
       </c>
-      <c r="B408" s="3">
+      <c r="B408" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:2">
-      <c r="A409" s="2">
+      <c r="A409" s="3">
         <v>39928</v>
       </c>
-      <c r="B409" s="3">
+      <c r="B409" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:2">
-      <c r="A410" s="2">
+      <c r="A410" s="3">
         <v>39929</v>
       </c>
-      <c r="B410" s="3">
+      <c r="B410" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:2">
-      <c r="A411" s="2">
+      <c r="A411" s="3">
         <v>39930</v>
       </c>
-      <c r="B411" s="3">
+      <c r="B411" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:2">
-      <c r="A412" s="2">
+      <c r="A412" s="3">
         <v>39931</v>
       </c>
-      <c r="B412" s="3">
+      <c r="B412" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:2">
-      <c r="A413" s="2">
+      <c r="A413" s="3">
         <v>39932</v>
       </c>
-      <c r="B413" s="3">
+      <c r="B413" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="2">
+      <c r="A414" s="3">
         <v>39933</v>
       </c>
-      <c r="B414" s="3">
+      <c r="B414" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="2">
+      <c r="A415" s="3">
         <v>39934</v>
       </c>
-      <c r="B415" s="3">
+      <c r="B415" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:2">
-      <c r="A416" s="2">
+      <c r="A416" s="3">
         <v>39935</v>
       </c>
-      <c r="B416" s="3">
+      <c r="B416" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:2">
-      <c r="A417" s="2">
+      <c r="A417" s="3">
         <v>39936</v>
       </c>
-      <c r="B417" s="3">
+      <c r="B417" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:2">
-      <c r="A418" s="2">
+      <c r="A418" s="3">
         <v>39937</v>
       </c>
-      <c r="B418" s="3">
+      <c r="B418" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:2">
-      <c r="A419" s="2">
+      <c r="A419" s="3">
         <v>39938</v>
       </c>
-      <c r="B419" s="3">
+      <c r="B419" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="420" spans="1:2">
-      <c r="A420" s="2">
+      <c r="A420" s="3">
         <v>39939</v>
       </c>
-      <c r="B420" s="3">
+      <c r="B420" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="2">
+      <c r="A421" s="3">
         <v>39940</v>
       </c>
-      <c r="B421" s="3">
+      <c r="B421" s="2">
         <v>1.27</v>
       </c>
     </row>
     <row r="422" spans="1:2">
-      <c r="A422" s="2">
+      <c r="A422" s="3">
         <v>39941</v>
       </c>
-      <c r="B422" s="3">
+      <c r="B422" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:2">
-      <c r="A423" s="2">
+      <c r="A423" s="3">
         <v>39942</v>
       </c>
-      <c r="B423" s="3">
+      <c r="B423" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:2">
-      <c r="A424" s="2">
+      <c r="A424" s="3">
         <v>39943</v>
       </c>
-      <c r="B424" s="3">
+      <c r="B424" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:2">
-      <c r="A425" s="2">
+      <c r="A425" s="3">
         <v>39944</v>
       </c>
-      <c r="B425" s="3">
+      <c r="B425" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:2">
-      <c r="A426" s="2">
+      <c r="A426" s="3">
         <v>39945</v>
       </c>
-      <c r="B426" s="3">
+      <c r="B426" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="427" spans="1:2">
-      <c r="A427" s="2">
+      <c r="A427" s="3">
         <v>39946</v>
       </c>
-      <c r="B427" s="3">
+      <c r="B427" s="2">
         <v>9.65</v>
       </c>
     </row>
     <row r="428" spans="1:2">
-      <c r="A428" s="2">
+      <c r="A428" s="3">
         <v>39947</v>
       </c>
-      <c r="B428" s="3">
+      <c r="B428" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:2">
-      <c r="A429" s="2">
+      <c r="A429" s="3">
         <v>39948</v>
       </c>
-      <c r="B429" s="3">
+      <c r="B429" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:2">
-      <c r="A430" s="2">
+      <c r="A430" s="3">
         <v>39949</v>
       </c>
-      <c r="B430" s="3">
+      <c r="B430" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="2">
+      <c r="A431" s="3">
         <v>39950</v>
       </c>
-      <c r="B431" s="3">
+      <c r="B431" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="2">
+      <c r="A432" s="3">
         <v>39951</v>
       </c>
-      <c r="B432" s="3">
+      <c r="B432" s="2">
         <v>1.524</v>
       </c>
     </row>
     <row r="433" spans="1:2">
-      <c r="A433" s="2">
+      <c r="A433" s="3">
         <v>39952</v>
       </c>
-      <c r="B433" s="3">
+      <c r="B433" s="2">
         <v>31.24</v>
       </c>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="2">
+      <c r="A434" s="3">
         <v>39953</v>
       </c>
-      <c r="B434" s="3">
+      <c r="B434" s="2">
         <v>1.27</v>
       </c>
     </row>
     <row r="435" spans="1:2">
-      <c r="A435" s="2">
+      <c r="A435" s="3">
         <v>39954</v>
       </c>
-      <c r="B435" s="3">
+      <c r="B435" s="2">
         <v>4.0640000000000001</v>
       </c>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="2">
+      <c r="A436" s="3">
         <v>39955</v>
       </c>
-      <c r="B436" s="3">
+      <c r="B436" s="2">
         <v>2.286</v>
       </c>
     </row>
     <row r="437" spans="1:2">
-      <c r="A437" s="2">
+      <c r="A437" s="3">
         <v>39956</v>
       </c>
-      <c r="B437" s="3">
+      <c r="B437" s="2">
         <v>19.809999999999999</v>
       </c>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="2">
+      <c r="A438" s="3">
         <v>39957</v>
       </c>
-      <c r="B438" s="3">
+      <c r="B438" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:2">
-      <c r="A439" s="2">
+      <c r="A439" s="3">
         <v>39958</v>
       </c>
-      <c r="B439" s="3">
+      <c r="B439" s="2">
         <v>11.94</v>
       </c>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="2">
+      <c r="A440" s="3">
         <v>39959</v>
       </c>
-      <c r="B440" s="3">
+      <c r="B440" s="2">
         <v>7.62</v>
       </c>
     </row>
     <row r="441" spans="1:2">
-      <c r="A441" s="2">
+      <c r="A441" s="3">
         <v>39960</v>
       </c>
-      <c r="B441" s="3">
+      <c r="B441" s="2">
         <v>27.69</v>
       </c>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="2">
+      <c r="A442" s="3">
         <v>39961</v>
       </c>
-      <c r="B442" s="3">
+      <c r="B442" s="2">
         <v>8.89</v>
       </c>
     </row>
     <row r="443" spans="1:2">
-      <c r="A443" s="2">
+      <c r="A443" s="3">
         <v>39962</v>
       </c>
-      <c r="B443" s="3">
+      <c r="B443" s="2">
         <v>2.286</v>
       </c>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="2">
+      <c r="A444" s="3">
         <v>39963</v>
       </c>
-      <c r="B444" s="3">
+      <c r="B444" s="2">
         <v>5.5880000000000001</v>
       </c>
     </row>
     <row r="445" spans="1:2">
-      <c r="A445" s="2">
+      <c r="A445" s="3">
         <v>39964</v>
       </c>
-      <c r="B445" s="3">
+      <c r="B445" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="2">
+      <c r="A446" s="3">
         <v>39965</v>
       </c>
-      <c r="B446" s="3">
+      <c r="B446" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:2">
-      <c r="A447" s="2">
+      <c r="A447" s="3">
         <v>39966</v>
       </c>
-      <c r="B447" s="3">
+      <c r="B447" s="2">
         <v>17.53</v>
       </c>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="2">
+      <c r="A448" s="3">
         <v>39967</v>
       </c>
-      <c r="B448" s="3">
+      <c r="B448" s="2">
         <v>2.286</v>
       </c>
     </row>
     <row r="449" spans="1:2">
-      <c r="A449" s="2">
+      <c r="A449" s="3">
         <v>39968</v>
       </c>
-      <c r="B449" s="3">
+      <c r="B449" s="2">
         <v>5.5880000000000001</v>
       </c>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="2">
+      <c r="A450" s="3">
         <v>39969</v>
       </c>
-      <c r="B450" s="3">
+      <c r="B450" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="451" spans="1:2">
-      <c r="A451" s="2">
+      <c r="A451" s="3">
         <v>39970</v>
       </c>
-      <c r="B451" s="3">
+      <c r="B451" s="2">
         <v>7.3659999999999997</v>
       </c>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="2">
+      <c r="A452" s="3">
         <v>39971</v>
       </c>
-      <c r="B452" s="3">
+      <c r="B452" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:2">
-      <c r="A453" s="2">
+      <c r="A453" s="3">
         <v>39972</v>
       </c>
-      <c r="B453" s="3">
+      <c r="B453" s="2">
         <v>11.68</v>
       </c>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="2">
+      <c r="A454" s="3">
         <v>39973</v>
       </c>
-      <c r="B454" s="3">
+      <c r="B454" s="2">
         <v>5.5880000000000001</v>
       </c>
     </row>
     <row r="455" spans="1:2">
-      <c r="A455" s="2">
+      <c r="A455" s="3">
         <v>39974</v>
       </c>
-      <c r="B455" s="3">
+      <c r="B455" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="2">
+      <c r="A456" s="3">
         <v>39975</v>
       </c>
-      <c r="B456" s="3">
+      <c r="B456" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:2">
-      <c r="A457" s="2">
+      <c r="A457" s="3">
         <v>39976</v>
       </c>
-      <c r="B457" s="3">
+      <c r="B457" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="2">
+      <c r="A458" s="3">
         <v>39977</v>
       </c>
-      <c r="B458" s="3">
+      <c r="B458" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="459" spans="1:2">
-      <c r="A459" s="2">
+      <c r="A459" s="3">
         <v>39978</v>
       </c>
-      <c r="B459" s="3">
+      <c r="B459" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="2">
+      <c r="A460" s="3">
         <v>39979</v>
       </c>
-      <c r="B460" s="3">
+      <c r="B460" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:2">
-      <c r="A461" s="2">
+      <c r="A461" s="3">
         <v>39980</v>
       </c>
-      <c r="B461" s="3">
+      <c r="B461" s="2">
         <v>2.794</v>
       </c>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="2">
+      <c r="A462" s="3">
         <v>39981</v>
       </c>
-      <c r="B462" s="3">
+      <c r="B462" s="2">
         <v>6.8579999999999997</v>
       </c>
     </row>
     <row r="463" spans="1:2">
-      <c r="A463" s="2">
+      <c r="A463" s="3">
         <v>39982</v>
       </c>
-      <c r="B463" s="3">
+      <c r="B463" s="2">
         <v>6.8579999999999997</v>
       </c>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="2">
+      <c r="A464" s="3">
         <v>39983</v>
       </c>
-      <c r="B464" s="3">
+      <c r="B464" s="2">
         <v>1.27</v>
       </c>
     </row>
     <row r="465" spans="1:2">
-      <c r="A465" s="2">
+      <c r="A465" s="3">
         <v>39984</v>
       </c>
-      <c r="B465" s="3">
+      <c r="B465" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="2">
+      <c r="A466" s="3">
         <v>39985</v>
       </c>
-      <c r="B466" s="3">
+      <c r="B466" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:2">
-      <c r="A467" s="2">
+      <c r="A467" s="3">
         <v>39986</v>
       </c>
-      <c r="B467" s="3">
+      <c r="B467" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="2">
+      <c r="A468" s="3">
         <v>39987</v>
       </c>
-      <c r="B468" s="3">
+      <c r="B468" s="2">
         <v>12.45</v>
       </c>
     </row>
     <row r="469" spans="1:2">
-      <c r="A469" s="2">
+      <c r="A469" s="3">
         <v>39988</v>
       </c>
-      <c r="B469" s="3">
+      <c r="B469" s="2">
         <v>14.73</v>
       </c>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="2">
+      <c r="A470" s="3">
         <v>39989</v>
       </c>
-      <c r="B470" s="3">
+      <c r="B470" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:2">
-      <c r="A471" s="2">
+      <c r="A471" s="3">
         <v>39990</v>
       </c>
-      <c r="B471" s="3">
+      <c r="B471" s="2">
         <v>31.5</v>
       </c>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="2">
+      <c r="A472" s="3">
         <v>39991</v>
       </c>
-      <c r="B472" s="3">
+      <c r="B472" s="2">
         <v>9.91</v>
       </c>
     </row>
     <row r="473" spans="1:2">
-      <c r="A473" s="2">
+      <c r="A473" s="3">
         <v>39992</v>
       </c>
-      <c r="B473" s="3">
+      <c r="B473" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="2">
+      <c r="A474" s="3">
         <v>39993</v>
       </c>
-      <c r="B474" s="3">
+      <c r="B474" s="2">
         <v>1.27</v>
       </c>
     </row>
     <row r="475" spans="1:2">
-      <c r="A475" s="2">
+      <c r="A475" s="3">
         <v>39994</v>
       </c>
-      <c r="B475" s="3">
+      <c r="B475" s="2">
         <v>14.22</v>
       </c>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="2">
+      <c r="A476" s="3">
         <v>39995</v>
       </c>
-      <c r="B476" s="3">
+      <c r="B476" s="2">
         <v>16.760000000000002</v>
       </c>
     </row>
     <row r="477" spans="1:2">
-      <c r="A477" s="2">
+      <c r="A477" s="3">
         <v>39996</v>
       </c>
-      <c r="B477" s="3">
+      <c r="B477" s="2">
         <v>34.04</v>
       </c>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="2">
+      <c r="A478" s="3">
         <v>39997</v>
       </c>
-      <c r="B478" s="3">
+      <c r="B478" s="2">
         <v>41.91</v>
       </c>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="2">
+      <c r="A479" s="3">
         <v>39998</v>
       </c>
-      <c r="B479" s="3">
+      <c r="B479" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="2">
+      <c r="A480" s="3">
         <v>39999</v>
       </c>
-      <c r="B480" s="3">
+      <c r="B480" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="481" spans="1:2">
-      <c r="A481" s="2">
+      <c r="A481" s="3">
         <v>40000</v>
       </c>
-      <c r="B481" s="3">
+      <c r="B481" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="2">
+      <c r="A482" s="3">
         <v>40001</v>
       </c>
-      <c r="B482" s="3">
+      <c r="B482" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="2">
+      <c r="A483" s="3">
         <v>40002</v>
       </c>
-      <c r="B483" s="3">
+      <c r="B483" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="2">
+      <c r="A484" s="3">
         <v>40003</v>
       </c>
-      <c r="B484" s="3">
+      <c r="B484" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="2">
+      <c r="A485" s="3">
         <v>40004</v>
       </c>
-      <c r="B485" s="3">
+      <c r="B485" s="2">
         <v>4.3179999999999996</v>
       </c>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="2">
+      <c r="A486" s="3">
         <v>40005</v>
       </c>
-      <c r="B486" s="3">
+      <c r="B486" s="2">
         <v>2.54</v>
       </c>
     </row>
     <row r="487" spans="1:2">
-      <c r="A487" s="2">
+      <c r="A487" s="3">
         <v>40006</v>
       </c>
-      <c r="B487" s="3">
+      <c r="B487" s="2">
         <v>7.8739999999999997</v>
       </c>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="2">
+      <c r="A488" s="3">
         <v>40007</v>
       </c>
-      <c r="B488" s="3">
+      <c r="B488" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:2">
-      <c r="A489" s="2">
+      <c r="A489" s="3">
         <v>40008</v>
       </c>
-      <c r="B489" s="3">
+      <c r="B489" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="2">
+      <c r="A490" s="3">
         <v>40009</v>
       </c>
-      <c r="B490" s="3">
+      <c r="B490" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:2">
-      <c r="A491" s="2">
+      <c r="A491" s="3">
         <v>40010</v>
       </c>
-      <c r="B491" s="3">
+      <c r="B491" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="2">
+      <c r="A492" s="3">
         <v>40011</v>
       </c>
-      <c r="B492" s="3">
+      <c r="B492" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:2">
-      <c r="A493" s="2">
+      <c r="A493" s="3">
         <v>40012</v>
       </c>
-      <c r="B493" s="3">
+      <c r="B493" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="2">
+      <c r="A494" s="3">
         <v>40013</v>
       </c>
-      <c r="B494" s="3">
+      <c r="B494" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:2">
-      <c r="A495" s="2">
+      <c r="A495" s="3">
         <v>40014</v>
       </c>
-      <c r="B495" s="3">
+      <c r="B495" s="2">
         <v>3.556</v>
       </c>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="2">
+      <c r="A496" s="3">
         <v>40015</v>
       </c>
-      <c r="B496" s="3">
+      <c r="B496" s="2">
         <v>3.302</v>
       </c>
     </row>
     <row r="497" spans="1:2">
-      <c r="A497" s="2">
+      <c r="A497" s="3">
         <v>40016</v>
       </c>
-      <c r="B497" s="3">
+      <c r="B497" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="2">
+      <c r="A498" s="3">
         <v>40017</v>
       </c>
-      <c r="B498" s="3">
+      <c r="B498" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:2">
-      <c r="A499" s="2">
+      <c r="A499" s="3">
         <v>40018</v>
       </c>
-      <c r="B499" s="3">
+      <c r="B499" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="2">
+      <c r="A500" s="3">
         <v>40019</v>
       </c>
-      <c r="B500" s="3">
+      <c r="B500" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:2">
-      <c r="A501" s="2">
+      <c r="A501" s="3">
         <v>40020</v>
       </c>
-      <c r="B501" s="3">
+      <c r="B501" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="2">
+      <c r="A502" s="3">
         <v>40021</v>
       </c>
-      <c r="B502" s="3">
+      <c r="B502" s="2">
         <v>74.17</v>
       </c>
     </row>
     <row r="503" spans="1:2">
-      <c r="A503" s="2">
+      <c r="A503" s="3">
         <v>40022</v>
       </c>
-      <c r="B503" s="3">
+      <c r="B503" s="2">
         <v>1.016</v>
       </c>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="2">
+      <c r="A504" s="3">
         <v>40023</v>
       </c>
-      <c r="B504" s="3">
+      <c r="B504" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="2">
+      <c r="A505" s="3">
         <v>40024</v>
       </c>
-      <c r="B505" s="3">
+      <c r="B505" s="2">
         <v>19.809999999999999</v>
       </c>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="2">
+      <c r="A506" s="3">
         <v>40025</v>
       </c>
-      <c r="B506" s="3">
+      <c r="B506" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:2">
-      <c r="A507" s="2">
+      <c r="A507" s="3">
         <v>40026</v>
       </c>
-      <c r="B507" s="3">
+      <c r="B507" s="2">
         <v>5.8419999999999996</v>
       </c>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="2">
+      <c r="A508" s="3">
         <v>40027</v>
       </c>
-      <c r="B508" s="3">
+      <c r="B508" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="509" spans="1:2">
-      <c r="A509" s="2">
+      <c r="A509" s="3">
         <v>40028</v>
       </c>
-      <c r="B509" s="3">
+      <c r="B509" s="2">
         <v>16.510000000000002</v>
       </c>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="2">
+      <c r="A510" s="3">
         <v>40029</v>
       </c>
-      <c r="B510" s="3">
+      <c r="B510" s="2">
         <v>9.65</v>
       </c>
     </row>
     <row r="511" spans="1:2">
-      <c r="A511" s="2">
+      <c r="A511" s="3">
         <v>40030</v>
       </c>
-      <c r="B511" s="3">
+      <c r="B511" s="2">
         <v>2.286</v>
       </c>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="2">
+      <c r="A512" s="3">
         <v>40031</v>
       </c>
-      <c r="B512" s="3">
+      <c r="B512" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="2">
+      <c r="A513" s="3">
         <v>40032</v>
       </c>
-      <c r="B513" s="3">
+      <c r="B513" s="2">
         <v>2.032</v>
       </c>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="2">
+      <c r="A514" s="3">
         <v>40033</v>
       </c>
-      <c r="B514" s="3">
+      <c r="B514" s="2">
         <v>3.556</v>
       </c>
     </row>
     <row r="515" spans="1:2">
-      <c r="A515" s="2">
+      <c r="A515" s="3">
         <v>40034</v>
       </c>
-      <c r="B515" s="3">
+      <c r="B515" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="2">
+      <c r="A516" s="3">
         <v>40035</v>
       </c>
-      <c r="B516" s="3">
+      <c r="B516" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:2">
-      <c r="A517" s="2">
+      <c r="A517" s="3">
         <v>40036</v>
       </c>
-      <c r="B517" s="3">
+      <c r="B517" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="2">
+      <c r="A518" s="3">
         <v>40037</v>
       </c>
-      <c r="B518" s="3">
+      <c r="B518" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:2">
-      <c r="A519" s="2">
+      <c r="A519" s="3">
         <v>40038</v>
       </c>
-      <c r="B519" s="3">
+      <c r="B519" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="2">
+      <c r="A520" s="3">
         <v>40039</v>
       </c>
-      <c r="B520" s="3">
+      <c r="B520" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="521" spans="1:2">
-      <c r="A521" s="2">
+      <c r="A521" s="3">
         <v>40040</v>
       </c>
-      <c r="B521" s="3">
+      <c r="B521" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="2">
+      <c r="A522" s="3">
         <v>40041</v>
       </c>
-      <c r="B522" s="3">
+      <c r="B522" s="2">
         <v>2.54</v>
       </c>
     </row>
     <row r="523" spans="1:2">
-      <c r="A523" s="2">
+      <c r="A523" s="3">
         <v>40042</v>
       </c>
-      <c r="B523" s="3">
+      <c r="B523" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="2">
+      <c r="A524" s="3">
         <v>40043</v>
       </c>
-      <c r="B524" s="3">
+      <c r="B524" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:2">
-      <c r="A525" s="2">
+      <c r="A525" s="3">
         <v>40044</v>
       </c>
-      <c r="B525" s="3">
+      <c r="B525" s="2">
         <v>1.016</v>
       </c>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="2">
+      <c r="A526" s="3">
         <v>40045</v>
       </c>
-      <c r="B526" s="3">
+      <c r="B526" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="527" spans="1:2">
-      <c r="A527" s="2">
+      <c r="A527" s="3">
         <v>40046</v>
       </c>
-      <c r="B527" s="3">
+      <c r="B527" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="2">
+      <c r="A528" s="3">
         <v>40047</v>
       </c>
-      <c r="B528" s="3">
+      <c r="B528" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="529" spans="1:2">
-      <c r="A529" s="2">
+      <c r="A529" s="3">
         <v>40048</v>
       </c>
-      <c r="B529" s="3">
+      <c r="B529" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="2">
+      <c r="A530" s="3">
         <v>40049</v>
       </c>
-      <c r="B530" s="3">
+      <c r="B530" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:2">
-      <c r="A531" s="2">
+      <c r="A531" s="3">
         <v>40050</v>
       </c>
-      <c r="B531" s="3">
+      <c r="B531" s="2">
         <v>7.62</v>
       </c>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="2">
+      <c r="A532" s="3">
         <v>40051</v>
       </c>
-      <c r="B532" s="3">
+      <c r="B532" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="533" spans="1:2">
-      <c r="A533" s="2">
+      <c r="A533" s="3">
         <v>40052</v>
       </c>
-      <c r="B533" s="3">
+      <c r="B533" s="2">
         <v>1.016</v>
       </c>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="2">
+      <c r="A534" s="3">
         <v>40053</v>
       </c>
-      <c r="B534" s="3">
+      <c r="B534" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:2">
-      <c r="A535" s="2">
+      <c r="A535" s="3">
         <v>40054</v>
       </c>
-      <c r="B535" s="3">
+      <c r="B535" s="2">
         <v>6.35</v>
       </c>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="2">
+      <c r="A536" s="3">
         <v>40055</v>
       </c>
-      <c r="B536" s="3">
+      <c r="B536" s="2">
         <v>1.27</v>
       </c>
     </row>
     <row r="537" spans="1:2">
-      <c r="A537" s="2">
+      <c r="A537" s="3">
         <v>40056</v>
       </c>
-      <c r="B537" s="3">
+      <c r="B537" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="2">
+      <c r="A538" s="3">
         <v>40057</v>
       </c>
-      <c r="B538" s="3">
+      <c r="B538" s="2">
         <v>3.556</v>
       </c>
     </row>
     <row r="539" spans="1:2">
-      <c r="A539" s="2">
+      <c r="A539" s="3">
         <v>40058</v>
       </c>
-      <c r="B539" s="3">
+      <c r="B539" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="2">
+      <c r="A540" s="3">
         <v>40059</v>
       </c>
-      <c r="B540" s="3">
+      <c r="B540" s="2">
         <v>26.16</v>
       </c>
     </row>
     <row r="541" spans="1:2">
-      <c r="A541" s="2">
+      <c r="A541" s="3">
         <v>40060</v>
       </c>
-      <c r="B541" s="3">
+      <c r="B541" s="2">
         <v>2.286</v>
       </c>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="2">
+      <c r="A542" s="3">
         <v>40061</v>
       </c>
-      <c r="B542" s="3">
+      <c r="B542" s="2">
         <v>18.03</v>
       </c>
     </row>
     <row r="543" spans="1:2">
-      <c r="A543" s="2">
+      <c r="A543" s="3">
         <v>40062</v>
       </c>
-      <c r="B543" s="3">
+      <c r="B543" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="2">
+      <c r="A544" s="3">
         <v>40063</v>
       </c>
-      <c r="B544" s="3">
+      <c r="B544" s="2">
         <v>8.89</v>
       </c>
     </row>
     <row r="545" spans="1:2">
-      <c r="A545" s="2">
+      <c r="A545" s="3">
         <v>40064</v>
       </c>
-      <c r="B545" s="3">
+      <c r="B545" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="2">
+      <c r="A546" s="3">
         <v>40065</v>
       </c>
-      <c r="B546" s="3">
+      <c r="B546" s="2">
         <v>2.032</v>
       </c>
     </row>
     <row r="547" spans="1:2">
-      <c r="A547" s="2">
+      <c r="A547" s="3">
         <v>40066</v>
       </c>
-      <c r="B547" s="3">
+      <c r="B547" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="2">
+      <c r="A548" s="3">
         <v>40067</v>
       </c>
-      <c r="B548" s="3">
+      <c r="B548" s="2">
         <v>5.5880000000000001</v>
       </c>
     </row>
     <row r="549" spans="1:2">
-      <c r="A549" s="2">
+      <c r="A549" s="3">
         <v>40068</v>
       </c>
-      <c r="B549" s="3">
+      <c r="B549" s="2">
         <v>1.016</v>
       </c>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="2">
+      <c r="A550" s="3">
         <v>40069</v>
       </c>
-      <c r="B550" s="3">
+      <c r="B550" s="2">
         <v>6.6040000000000001</v>
       </c>
     </row>
     <row r="551" spans="1:2">
-      <c r="A551" s="2">
+      <c r="A551" s="3">
         <v>40070</v>
       </c>
-      <c r="B551" s="3">
+      <c r="B551" s="2">
         <v>23.11</v>
       </c>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="2">
+      <c r="A552" s="3">
         <v>40071</v>
       </c>
-      <c r="B552" s="3">
+      <c r="B552" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="553" spans="1:2">
-      <c r="A553" s="2">
+      <c r="A553" s="3">
         <v>40072</v>
       </c>
-      <c r="B553" s="3">
+      <c r="B553" s="2">
         <v>1.27</v>
       </c>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="2">
+      <c r="A554" s="3">
         <v>40073</v>
       </c>
-      <c r="B554" s="3">
+      <c r="B554" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:2">
-      <c r="A555" s="2">
+      <c r="A555" s="3">
         <v>40074</v>
       </c>
-      <c r="B555" s="3">
+      <c r="B555" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="2">
+      <c r="A556" s="3">
         <v>40075</v>
       </c>
-      <c r="B556" s="3">
+      <c r="B556" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:2">
-      <c r="A557" s="2">
+      <c r="A557" s="3">
         <v>40076</v>
       </c>
-      <c r="B557" s="3">
+      <c r="B557" s="2">
         <v>8.3800000000000008</v>
       </c>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="2">
+      <c r="A558" s="3">
         <v>40077</v>
       </c>
-      <c r="B558" s="3">
+      <c r="B558" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:2">
-      <c r="A559" s="2">
+      <c r="A559" s="3">
         <v>40078</v>
       </c>
-      <c r="B559" s="3">
+      <c r="B559" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="2">
+      <c r="A560" s="3">
         <v>40079</v>
       </c>
-      <c r="B560" s="3">
+      <c r="B560" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="2">
+      <c r="A561" s="3">
         <v>40080</v>
       </c>
-      <c r="B561" s="3">
+      <c r="B561" s="2">
         <v>1.27</v>
       </c>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="2">
+      <c r="A562" s="3">
         <v>40081</v>
       </c>
-      <c r="B562" s="3">
+      <c r="B562" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:2">
-      <c r="A563" s="2">
+      <c r="A563" s="3">
         <v>40082</v>
       </c>
-      <c r="B563" s="3">
+      <c r="B563" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="2">
+      <c r="A564" s="3">
         <v>40083</v>
       </c>
-      <c r="B564" s="3">
+      <c r="B564" s="2">
         <v>28.19</v>
       </c>
     </row>
     <row r="565" spans="1:2">
-      <c r="A565" s="2">
+      <c r="A565" s="3">
         <v>40084</v>
       </c>
-      <c r="B565" s="3">
+      <c r="B565" s="2">
         <v>3.556</v>
       </c>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="2">
+      <c r="A566" s="3">
         <v>40085</v>
       </c>
-      <c r="B566" s="3">
+      <c r="B566" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:2">
-      <c r="A567" s="2">
+      <c r="A567" s="3">
         <v>40086</v>
       </c>
-      <c r="B567" s="3">
+      <c r="B567" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="2">
+      <c r="A568" s="3">
         <v>40087</v>
       </c>
-      <c r="B568" s="3">
+      <c r="B568" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:2">
-      <c r="A569" s="2">
+      <c r="A569" s="3">
         <v>40088</v>
       </c>
-      <c r="B569" s="3">
+      <c r="B569" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="2">
+      <c r="A570" s="3">
         <v>40089</v>
       </c>
-      <c r="B570" s="3">
+      <c r="B570" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:2">
-      <c r="A571" s="2">
+      <c r="A571" s="3">
         <v>40090</v>
       </c>
-      <c r="B571" s="3">
+      <c r="B571" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="2">
+      <c r="A572" s="3">
         <v>40091</v>
       </c>
-      <c r="B572" s="3">
+      <c r="B572" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="2">
+      <c r="A573" s="3">
         <v>40092</v>
       </c>
-      <c r="B573" s="3">
+      <c r="B573" s="2">
         <v>10.92</v>
       </c>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="2">
+      <c r="A574" s="3">
         <v>40093</v>
       </c>
-      <c r="B574" s="3">
+      <c r="B574" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="2">
+      <c r="A575" s="3">
         <v>40094</v>
       </c>
-      <c r="B575" s="3">
+      <c r="B575" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="2">
+      <c r="A576" s="3">
         <v>40095</v>
       </c>
-      <c r="B576" s="3">
+      <c r="B576" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="2">
+      <c r="A577" s="3">
         <v>40096</v>
       </c>
-      <c r="B577" s="3">
+      <c r="B577" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="2">
+      <c r="A578" s="3">
         <v>40097</v>
       </c>
-      <c r="B578" s="3">
+      <c r="B578" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:2">
-      <c r="A579" s="2">
+      <c r="A579" s="3">
         <v>40098</v>
       </c>
-      <c r="B579" s="3">
+      <c r="B579" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="2">
+      <c r="A580" s="3">
         <v>40099</v>
       </c>
-      <c r="B580" s="3">
+      <c r="B580" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:2">
-      <c r="A581" s="2">
+      <c r="A581" s="3">
         <v>40100</v>
       </c>
-      <c r="B581" s="3">
+      <c r="B581" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="2">
+      <c r="A582" s="3">
         <v>40101</v>
       </c>
-      <c r="B582" s="3">
+      <c r="B582" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:2">
-      <c r="A583" s="2">
+      <c r="A583" s="3">
         <v>40102</v>
       </c>
-      <c r="B583" s="3">
+      <c r="B583" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="2">
+      <c r="A584" s="3">
         <v>40103</v>
       </c>
-      <c r="B584" s="3">
+      <c r="B584" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:2">
-      <c r="A585" s="2">
+      <c r="A585" s="3">
         <v>40104</v>
       </c>
-      <c r="B585" s="3">
+      <c r="B585" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="2">
+      <c r="A586" s="3">
         <v>40105</v>
       </c>
-      <c r="B586" s="3">
+      <c r="B586" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:2">
-      <c r="A587" s="2">
+      <c r="A587" s="3">
         <v>40106</v>
       </c>
-      <c r="B587" s="3">
+      <c r="B587" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="2">
+      <c r="A588" s="3">
         <v>40107</v>
       </c>
-      <c r="B588" s="3">
+      <c r="B588" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:2">
-      <c r="A589" s="2">
+      <c r="A589" s="3">
         <v>40108</v>
       </c>
-      <c r="B589" s="3">
+      <c r="B589" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="2">
+      <c r="A590" s="3">
         <v>40109</v>
       </c>
-      <c r="B590" s="3">
+      <c r="B590" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="591" spans="1:2">
-      <c r="A591" s="2">
+      <c r="A591" s="3">
         <v>40110</v>
       </c>
-      <c r="B591" s="3">
+      <c r="B591" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="2">
+      <c r="A592" s="3">
         <v>40111</v>
       </c>
-      <c r="B592" s="3">
+      <c r="B592" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:2">
-      <c r="A593" s="2">
+      <c r="A593" s="3">
         <v>40112</v>
       </c>
-      <c r="B593" s="3">
+      <c r="B593" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="2">
+      <c r="A594" s="3">
         <v>40113</v>
       </c>
-      <c r="B594" s="3">
+      <c r="B594" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:2">
-      <c r="A595" s="2">
+      <c r="A595" s="3">
         <v>40114</v>
       </c>
-      <c r="B595" s="3">
+      <c r="B595" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="2">
+      <c r="A596" s="3">
         <v>40115</v>
       </c>
-      <c r="B596" s="3">
+      <c r="B596" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:2">
-      <c r="A597" s="2">
+      <c r="A597" s="3">
         <v>40116</v>
       </c>
-      <c r="B597" s="3">
+      <c r="B597" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="2">
+      <c r="A598" s="3">
         <v>40117</v>
       </c>
-      <c r="B598" s="3">
+      <c r="B598" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:2">
-      <c r="A599" s="2">
+      <c r="A599" s="3">
         <v>40118</v>
       </c>
-      <c r="B599" s="3">
+      <c r="B599" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="2">
+      <c r="A600" s="3">
         <v>40119</v>
       </c>
-      <c r="B600" s="3">
+      <c r="B600" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:2">
-      <c r="A601" s="2">
+      <c r="A601" s="3">
         <v>40120</v>
       </c>
-      <c r="B601" s="3">
+      <c r="B601" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="2">
+      <c r="A602" s="3">
         <v>40121</v>
       </c>
-      <c r="B602" s="3">
+      <c r="B602" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:2">
-      <c r="A603" s="2">
+      <c r="A603" s="3">
         <v>40122</v>
       </c>
-      <c r="B603" s="3">
+      <c r="B603" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="2">
+      <c r="A604" s="3">
         <v>40123</v>
       </c>
-      <c r="B604" s="3">
+      <c r="B604" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="2">
+      <c r="A605" s="3">
         <v>40124</v>
       </c>
-      <c r="B605" s="3">
+      <c r="B605" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="2">
+      <c r="A606" s="3">
         <v>40125</v>
       </c>
-      <c r="B606" s="3">
+      <c r="B606" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:2">
-      <c r="A607" s="2">
+      <c r="A607" s="3">
         <v>40126</v>
       </c>
-      <c r="B607" s="3">
+      <c r="B607" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="2">
+      <c r="A608" s="3">
         <v>40127</v>
       </c>
-      <c r="B608" s="3">
+      <c r="B608" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="609" spans="1:2">
-      <c r="A609" s="2">
+      <c r="A609" s="3">
         <v>40128</v>
       </c>
-      <c r="B609" s="3">
+      <c r="B609" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="2">
+      <c r="A610" s="3">
         <v>40129</v>
       </c>
-      <c r="B610" s="3">
+      <c r="B610" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:2">
-      <c r="A611" s="2">
+      <c r="A611" s="3">
         <v>40130</v>
       </c>
-      <c r="B611" s="3">
+      <c r="B611" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="2">
+      <c r="A612" s="3">
         <v>40131</v>
       </c>
-      <c r="B612" s="3">
+      <c r="B612" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="613" spans="1:2">
-      <c r="A613" s="2">
+      <c r="A613" s="3">
         <v>40132</v>
       </c>
-      <c r="B613" s="3">
+      <c r="B613" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="2">
+      <c r="A614" s="3">
         <v>40133</v>
       </c>
-      <c r="B614" s="3">
+      <c r="B614" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:2">
-      <c r="A615" s="2">
+      <c r="A615" s="3">
         <v>40134</v>
       </c>
-      <c r="B615" s="3">
+      <c r="B615" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="2">
+      <c r="A616" s="3">
         <v>40135</v>
       </c>
-      <c r="B616" s="3">
+      <c r="B616" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:2">
-      <c r="A617" s="2">
+      <c r="A617" s="3">
         <v>40136</v>
       </c>
-      <c r="B617" s="3">
+      <c r="B617" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:2">
-      <c r="A618" s="2">
+      <c r="A618" s="3">
         <v>40137</v>
       </c>
-      <c r="B618" s="3">
+      <c r="B618" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:2">
-      <c r="A619" s="2">
+      <c r="A619" s="3">
         <v>40138</v>
       </c>
-      <c r="B619" s="3">
+      <c r="B619" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:2">
-      <c r="A620" s="2">
+      <c r="A620" s="3">
         <v>40139</v>
       </c>
-      <c r="B620" s="3">
+      <c r="B620" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:2">
-      <c r="A621" s="2">
+      <c r="A621" s="3">
         <v>40140</v>
       </c>
-      <c r="B621" s="3">
+      <c r="B621" s="2">
         <v>2.54</v>
       </c>
     </row>
     <row r="622" spans="1:2">
-      <c r="A622" s="2">
+      <c r="A622" s="3">
         <v>40141</v>
       </c>
-      <c r="B622" s="3">
+      <c r="B622" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:2">
-      <c r="A623" s="2">
+      <c r="A623" s="3">
         <v>40142</v>
       </c>
-      <c r="B623" s="3">
+      <c r="B623" s="2">
         <v>7.62</v>
       </c>
     </row>
     <row r="624" spans="1:2">
-      <c r="A624" s="2">
+      <c r="A624" s="3">
         <v>40143</v>
       </c>
-      <c r="B624" s="3">
+      <c r="B624" s="2">
         <v>14.99</v>
       </c>
     </row>
     <row r="625" spans="1:2">
-      <c r="A625" s="2">
+      <c r="A625" s="3">
         <v>40144</v>
       </c>
-      <c r="B625" s="3">
+      <c r="B625" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="626" spans="1:2">
-      <c r="A626" s="2">
+      <c r="A626" s="3">
         <v>40145</v>
       </c>
-      <c r="B626" s="3">
+      <c r="B626" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:2">
-      <c r="A627" s="2">
+      <c r="A627" s="3">
         <v>40146</v>
       </c>
-      <c r="B627" s="3">
+      <c r="B627" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:2">
-      <c r="A628" s="2">
+      <c r="A628" s="3">
         <v>40147</v>
       </c>
-      <c r="B628" s="3">
+      <c r="B628" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:2">
-      <c r="A629" s="2">
+      <c r="A629" s="3">
         <v>40148</v>
       </c>
-      <c r="B629" s="3">
+      <c r="B629" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:2">
-      <c r="A630" s="2">
+      <c r="A630" s="3">
         <v>40149</v>
       </c>
-      <c r="B630" s="3">
+      <c r="B630" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:2">
-      <c r="A631" s="2">
+      <c r="A631" s="3">
         <v>40150</v>
       </c>
-      <c r="B631" s="3">
+      <c r="B631" s="2">
         <v>2.286</v>
       </c>
     </row>
     <row r="632" spans="1:2">
-      <c r="A632" s="2">
+      <c r="A632" s="3">
         <v>40151</v>
       </c>
-      <c r="B632" s="3">
+      <c r="B632" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="633" spans="1:2">
-      <c r="A633" s="2">
+      <c r="A633" s="3">
         <v>40152</v>
       </c>
-      <c r="B633" s="3">
+      <c r="B633" s="2">
         <v>34.799999999999997</v>
       </c>
     </row>
     <row r="634" spans="1:2">
-      <c r="A634" s="2">
+      <c r="A634" s="3">
         <v>40153</v>
       </c>
-      <c r="B634" s="3">
+      <c r="B634" s="2">
         <v>8.3800000000000008</v>
       </c>
     </row>
     <row r="635" spans="1:2">
-      <c r="A635" s="2">
+      <c r="A635" s="3">
         <v>40154</v>
       </c>
-      <c r="B635" s="3">
+      <c r="B635" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:2">
-      <c r="A636" s="2">
+      <c r="A636" s="3">
         <v>40155</v>
       </c>
-      <c r="B636" s="3">
+      <c r="B636" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:2">
-      <c r="A637" s="2">
+      <c r="A637" s="3">
         <v>40156</v>
       </c>
-      <c r="B637" s="3">
+      <c r="B637" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:2">
-      <c r="A638" s="2">
+      <c r="A638" s="3">
         <v>40157</v>
       </c>
-      <c r="B638" s="3">
+      <c r="B638" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:2">
-      <c r="A639" s="2">
+      <c r="A639" s="3">
         <v>40158</v>
       </c>
-      <c r="B639" s="3">
+      <c r="B639" s="2">
         <v>3.556</v>
       </c>
     </row>
     <row r="640" spans="1:2">
-      <c r="A640" s="2">
+      <c r="A640" s="3">
         <v>40159</v>
       </c>
-      <c r="B640" s="3">
+      <c r="B640" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="641" spans="1:2">
-      <c r="A641" s="2">
+      <c r="A641" s="3">
         <v>40160</v>
       </c>
-      <c r="B641" s="3">
+      <c r="B641" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:2">
-      <c r="A642" s="2">
+      <c r="A642" s="3">
         <v>40161</v>
       </c>
-      <c r="B642" s="3">
+      <c r="B642" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:2">
-      <c r="A643" s="2">
+      <c r="A643" s="3">
         <v>40162</v>
       </c>
-      <c r="B643" s="3">
+      <c r="B643" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:2">
-      <c r="A644" s="2">
+      <c r="A644" s="3">
         <v>40163</v>
       </c>
-      <c r="B644" s="3">
+      <c r="B644" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="645" spans="1:2">
-      <c r="A645" s="2">
+      <c r="A645" s="3">
         <v>40164</v>
       </c>
-      <c r="B645" s="3">
+      <c r="B645" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="646" spans="1:2">
-      <c r="A646" s="2">
+      <c r="A646" s="3">
         <v>40165</v>
       </c>
-      <c r="B646" s="3">
+      <c r="B646" s="2">
         <v>1.524</v>
       </c>
     </row>
     <row r="647" spans="1:2">
-      <c r="A647" s="2">
+      <c r="A647" s="3">
         <v>40166</v>
       </c>
-      <c r="B647" s="3">
+      <c r="B647" s="2">
         <v>12.45</v>
       </c>
     </row>
     <row r="648" spans="1:2">
-      <c r="A648" s="2">
+      <c r="A648" s="3">
         <v>40167</v>
       </c>
-      <c r="B648" s="3">
+      <c r="B648" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:2">
-      <c r="A649" s="2">
+      <c r="A649" s="3">
         <v>40168</v>
       </c>
-      <c r="B649" s="3">
+      <c r="B649" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:2">
-      <c r="A650" s="2">
+      <c r="A650" s="3">
         <v>40169</v>
       </c>
-      <c r="B650" s="3">
+      <c r="B650" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:2">
-      <c r="A651" s="2">
+      <c r="A651" s="3">
         <v>40170</v>
       </c>
-      <c r="B651" s="3">
+      <c r="B651" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:2">
-      <c r="A652" s="2">
+      <c r="A652" s="3">
         <v>40171</v>
       </c>
-      <c r="B652" s="3">
+      <c r="B652" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:2">
-      <c r="A653" s="2">
+      <c r="A653" s="3">
         <v>40172</v>
       </c>
-      <c r="B653" s="3">
+      <c r="B653" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:2">
-      <c r="A654" s="2">
+      <c r="A654" s="3">
         <v>40173</v>
       </c>
-      <c r="B654" s="3">
+      <c r="B654" s="2">
         <v>2.032</v>
       </c>
     </row>
     <row r="655" spans="1:2">
-      <c r="A655" s="2">
+      <c r="A655" s="3">
         <v>40174</v>
       </c>
-      <c r="B655" s="3">
+      <c r="B655" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:2">
-      <c r="A656" s="2">
+      <c r="A656" s="3">
         <v>40175</v>
       </c>
-      <c r="B656" s="3">
+      <c r="B656" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:2">
-      <c r="A657" s="2">
+      <c r="A657" s="3">
         <v>40176</v>
       </c>
-      <c r="B657" s="3">
+      <c r="B657" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:2">
-      <c r="A658" s="2">
+      <c r="A658" s="3">
         <v>40177</v>
       </c>
-      <c r="B658" s="3">
+      <c r="B658" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:2">
-      <c r="A659" s="2">
+      <c r="A659" s="3">
         <v>40178</v>
       </c>
-      <c r="B659" s="3">
+      <c r="B659" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:2">
-      <c r="A660" s="2">
+      <c r="A660" s="3">
         <v>40179</v>
       </c>
-      <c r="B660" s="3">
+      <c r="B660" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:2">
-      <c r="A661" s="2">
+      <c r="A661" s="3">
         <v>40180</v>
       </c>
-      <c r="B661" s="3">
+      <c r="B661" s="2">
         <v>16.760000000000002</v>
       </c>
     </row>
     <row r="662" spans="1:2">
-      <c r="A662" s="2">
+      <c r="A662" s="3">
         <v>40181</v>
       </c>
-      <c r="B662" s="3">
+      <c r="B662" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:2">
-      <c r="A663" s="2">
+      <c r="A663" s="3">
         <v>40182</v>
       </c>
-      <c r="B663" s="3">
+      <c r="B663" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:2">
-      <c r="A664" s="2">
+      <c r="A664" s="3">
         <v>40183</v>
       </c>
-      <c r="B664" s="3">
+      <c r="B664" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:2">
-      <c r="A665" s="2">
+      <c r="A665" s="3">
         <v>40184</v>
       </c>
-      <c r="B665" s="3">
+      <c r="B665" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:2">
-      <c r="A666" s="2">
+      <c r="A666" s="3">
         <v>40185</v>
       </c>
-      <c r="B666" s="3">
+      <c r="B666" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:2">
-      <c r="A667" s="2">
+      <c r="A667" s="3">
         <v>40186</v>
       </c>
-      <c r="B667" s="3">
+      <c r="B667" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:2">
-      <c r="A668" s="2">
+      <c r="A668" s="3">
         <v>40187</v>
       </c>
-      <c r="B668" s="3">
+      <c r="B668" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="669" spans="1:2">
-      <c r="A669" s="2">
+      <c r="A669" s="3">
         <v>40188</v>
       </c>
-      <c r="B669" s="3">
+      <c r="B669" s="2">
         <v>6.6040000000000001</v>
       </c>
     </row>
     <row r="670" spans="1:2">
-      <c r="A670" s="2">
+      <c r="A670" s="3">
         <v>40189</v>
       </c>
-      <c r="B670" s="3">
+      <c r="B670" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:2">
-      <c r="A671" s="2">
+      <c r="A671" s="3">
         <v>40190</v>
       </c>
-      <c r="B671" s="3">
+      <c r="B671" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:2">
-      <c r="A672" s="2">
+      <c r="A672" s="3">
         <v>40191</v>
       </c>
-      <c r="B672" s="3">
+      <c r="B672" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:2">
-      <c r="A673" s="2">
+      <c r="A673" s="3">
         <v>40192</v>
       </c>
-      <c r="B673" s="3">
+      <c r="B673" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:2">
-      <c r="A674" s="2">
+      <c r="A674" s="3">
         <v>40193</v>
       </c>
-      <c r="B674" s="3">
+      <c r="B674" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:2">
-      <c r="A675" s="2">
+      <c r="A675" s="3">
         <v>40194</v>
       </c>
-      <c r="B675" s="3">
+      <c r="B675" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:2">
-      <c r="A676" s="2">
+      <c r="A676" s="3">
         <v>40195</v>
       </c>
-      <c r="B676" s="3">
+      <c r="B676" s="2">
         <v>1.016</v>
       </c>
     </row>
     <row r="677" spans="1:2">
-      <c r="A677" s="2">
+      <c r="A677" s="3">
         <v>40196</v>
       </c>
-      <c r="B677" s="3">
+      <c r="B677" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:2">
-      <c r="A678" s="2">
+      <c r="A678" s="3">
         <v>40197</v>
       </c>
-      <c r="B678" s="3">
+      <c r="B678" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:2">
-      <c r="A679" s="2">
+      <c r="A679" s="3">
         <v>40198</v>
       </c>
-      <c r="B679" s="3">
+      <c r="B679" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:2">
-      <c r="A680" s="2">
+      <c r="A680" s="3">
         <v>40199</v>
       </c>
-      <c r="B680" s="3">
+      <c r="B680" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:2">
-      <c r="A681" s="2">
+      <c r="A681" s="3">
         <v>40200</v>
       </c>
-      <c r="B681" s="3">
+      <c r="B681" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:2">
-      <c r="A682" s="2">
+      <c r="A682" s="3">
         <v>40201</v>
       </c>
-      <c r="B682" s="3">
+      <c r="B682" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="683" spans="1:2">
-      <c r="A683" s="2">
+      <c r="A683" s="3">
         <v>40202</v>
       </c>
-      <c r="B683" s="3">
+      <c r="B683" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="684" spans="1:2">
-      <c r="A684" s="2">
+      <c r="A684" s="3">
         <v>40203</v>
       </c>
-      <c r="B684" s="3">
+      <c r="B684" s="2">
         <v>1.524</v>
       </c>
     </row>
     <row r="685" spans="1:2">
-      <c r="A685" s="2">
+      <c r="A685" s="3">
         <v>40204</v>
       </c>
-      <c r="B685" s="3">
+      <c r="B685" s="2">
         <v>10.16</v>
       </c>
     </row>
     <row r="686" spans="1:2">
-      <c r="A686" s="2">
+      <c r="A686" s="3">
         <v>40205</v>
       </c>
-      <c r="B686" s="3">
+      <c r="B686" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:2">
-      <c r="A687" s="2">
+      <c r="A687" s="3">
         <v>40206</v>
       </c>
-      <c r="B687" s="3">
+      <c r="B687" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:2">
-      <c r="A688" s="2">
+      <c r="A688" s="3">
         <v>40207</v>
       </c>
-      <c r="B688" s="3">
+      <c r="B688" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:2">
-      <c r="A689" s="2">
+      <c r="A689" s="3">
         <v>40208</v>
       </c>
-      <c r="B689" s="3">
+      <c r="B689" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:2">
-      <c r="A690" s="2">
+      <c r="A690" s="3">
         <v>40209</v>
       </c>
-      <c r="B690" s="3">
+      <c r="B690" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:2">
-      <c r="A691" s="2">
+      <c r="A691" s="3">
         <v>40210</v>
       </c>
-      <c r="B691" s="3">
+      <c r="B691" s="2">
         <v>1.778</v>
       </c>
     </row>
     <row r="692" spans="1:2">
-      <c r="A692" s="2">
+      <c r="A692" s="3">
         <v>40211</v>
       </c>
-      <c r="B692" s="3">
+      <c r="B692" s="2">
         <v>3.81</v>
       </c>
     </row>
     <row r="693" spans="1:2">
-      <c r="A693" s="2">
+      <c r="A693" s="3">
         <v>40212</v>
       </c>
-      <c r="B693" s="3">
+      <c r="B693" s="2">
         <v>2.032</v>
       </c>
     </row>
     <row r="694" spans="1:2">
-      <c r="A694" s="2">
+      <c r="A694" s="3">
         <v>40213</v>
       </c>
-      <c r="B694" s="3">
+      <c r="B694" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:2">
-      <c r="A695" s="2">
+      <c r="A695" s="3">
         <v>40214</v>
       </c>
-      <c r="B695" s="3">
+      <c r="B695" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:2">
-      <c r="A696" s="2">
+      <c r="A696" s="3">
         <v>40215</v>
       </c>
-      <c r="B696" s="3">
+      <c r="B696" s="2">
         <v>11.94</v>
       </c>
     </row>
     <row r="697" spans="1:2">
-      <c r="A697" s="2">
+      <c r="A697" s="3">
         <v>40216</v>
       </c>
-      <c r="B697" s="3">
+      <c r="B697" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="698" spans="1:2">
-      <c r="A698" s="2">
+      <c r="A698" s="3">
         <v>40217</v>
       </c>
-      <c r="B698" s="3">
+      <c r="B698" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:2">
-      <c r="A699" s="2">
+      <c r="A699" s="3">
         <v>40218</v>
       </c>
-      <c r="B699" s="3">
+      <c r="B699" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:2">
-      <c r="A700" s="2">
+      <c r="A700" s="3">
         <v>40219</v>
       </c>
-      <c r="B700" s="3">
+      <c r="B700" s="2">
         <v>20.32</v>
       </c>
     </row>
     <row r="701" spans="1:2">
-      <c r="A701" s="2">
+      <c r="A701" s="3">
         <v>40220</v>
       </c>
-      <c r="B701" s="3">
+      <c r="B701" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:2">
-      <c r="A702" s="2">
+      <c r="A702" s="3">
         <v>40221</v>
       </c>
-      <c r="B702" s="3">
+      <c r="B702" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:2">
-      <c r="A703" s="2">
+      <c r="A703" s="3">
         <v>40222</v>
       </c>
-      <c r="B703" s="3">
+      <c r="B703" s="2">
         <v>23.37</v>
       </c>
     </row>
     <row r="704" spans="1:2">
-      <c r="A704" s="2">
+      <c r="A704" s="3">
         <v>40223</v>
       </c>
-      <c r="B704" s="3">
+      <c r="B704" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:2">
-      <c r="A705" s="2">
+      <c r="A705" s="3">
         <v>40224</v>
       </c>
-      <c r="B705" s="3">
+      <c r="B705" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:2">
-      <c r="A706" s="2">
+      <c r="A706" s="3">
         <v>40225</v>
       </c>
-      <c r="B706" s="3">
+      <c r="B706" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:2">
-      <c r="A707" s="2">
+      <c r="A707" s="3">
         <v>40226</v>
       </c>
-      <c r="B707" s="3">
+      <c r="B707" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:2">
-      <c r="A708" s="2">
+      <c r="A708" s="3">
         <v>40227</v>
       </c>
-      <c r="B708" s="3">
+      <c r="B708" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:2">
-      <c r="A709" s="2">
+      <c r="A709" s="3">
         <v>40228</v>
       </c>
-      <c r="B709" s="3">
+      <c r="B709" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:2">
-      <c r="A710" s="2">
+      <c r="A710" s="3">
         <v>40229</v>
       </c>
-      <c r="B710" s="3">
+      <c r="B710" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:2">
-      <c r="A711" s="2">
+      <c r="A711" s="3">
         <v>40230</v>
       </c>
-      <c r="B711" s="3">
+      <c r="B711" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:2">
-      <c r="A712" s="2">
+      <c r="A712" s="3">
         <v>40231</v>
       </c>
-      <c r="B712" s="3">
+      <c r="B712" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:2">
-      <c r="A713" s="2">
+      <c r="A713" s="3">
         <v>40232</v>
       </c>
-      <c r="B713" s="3">
+      <c r="B713" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="714" spans="1:2">
-      <c r="A714" s="2">
+      <c r="A714" s="3">
         <v>40233</v>
       </c>
-      <c r="B714" s="3">
+      <c r="B714" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="715" spans="1:2">
-      <c r="A715" s="2">
+      <c r="A715" s="3">
         <v>40234</v>
       </c>
-      <c r="B715" s="3">
+      <c r="B715" s="2">
         <v>7.8739999999999997</v>
       </c>
     </row>
     <row r="716" spans="1:2">
-      <c r="A716" s="2">
+      <c r="A716" s="3">
         <v>40235</v>
       </c>
-      <c r="B716" s="3">
+      <c r="B716" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:2">
-      <c r="A717" s="2">
+      <c r="A717" s="3">
         <v>40236</v>
       </c>
-      <c r="B717" s="3">
+      <c r="B717" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:2">
-      <c r="A718" s="2">
+      <c r="A718" s="3">
         <v>40237</v>
       </c>
-      <c r="B718" s="3">
+      <c r="B718" s="2">
         <v>1.778</v>
       </c>
     </row>
     <row r="719" spans="1:2">
-      <c r="A719" s="2">
+      <c r="A719" s="3">
         <v>40238</v>
       </c>
-      <c r="B719" s="3">
+      <c r="B719" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="720" spans="1:2">
-      <c r="A720" s="2">
+      <c r="A720" s="3">
         <v>40239</v>
       </c>
-      <c r="B720" s="3">
+      <c r="B720" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="721" spans="1:2">
-      <c r="A721" s="2">
+      <c r="A721" s="3">
         <v>40240</v>
       </c>
-      <c r="B721" s="3">
+      <c r="B721" s="2">
         <v>5.3339999999999996</v>
       </c>
     </row>
     <row r="722" spans="1:2">
-      <c r="A722" s="2">
+      <c r="A722" s="3">
         <v>40241</v>
       </c>
-      <c r="B722" s="3">
+      <c r="B722" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:2">
-      <c r="A723" s="2">
+      <c r="A723" s="3">
         <v>40242</v>
       </c>
-      <c r="B723" s="3">
+      <c r="B723" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:2">
-      <c r="A724" s="2">
+      <c r="A724" s="3">
         <v>40243</v>
       </c>
-      <c r="B724" s="3">
+      <c r="B724" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:2">
-      <c r="A725" s="2">
+      <c r="A725" s="3">
         <v>40244</v>
       </c>
-      <c r="B725" s="3">
+      <c r="B725" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:2">
-      <c r="A726" s="2">
+      <c r="A726" s="3">
         <v>40245</v>
       </c>
-      <c r="B726" s="3">
+      <c r="B726" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:2">
-      <c r="A727" s="2">
+      <c r="A727" s="3">
         <v>40246</v>
       </c>
-      <c r="B727" s="3">
+      <c r="B727" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:2">
-      <c r="A728" s="2">
+      <c r="A728" s="3">
         <v>40247</v>
       </c>
-      <c r="B728" s="3">
+      <c r="B728" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:2">
-      <c r="A729" s="2">
+      <c r="A729" s="3">
         <v>40248</v>
       </c>
-      <c r="B729" s="3">
+      <c r="B729" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:2">
-      <c r="A730" s="2">
+      <c r="A730" s="3">
         <v>40249</v>
       </c>
-      <c r="B730" s="3">
+      <c r="B730" s="2">
         <v>58.17</v>
       </c>
     </row>
     <row r="731" spans="1:2">
-      <c r="A731" s="2">
+      <c r="A731" s="3">
         <v>40250</v>
       </c>
-      <c r="B731" s="3">
+      <c r="B731" s="2">
         <v>41.66</v>
       </c>
     </row>
     <row r="732" spans="1:2">
-      <c r="A732" s="2">
+      <c r="A732" s="3">
         <v>40251</v>
       </c>
-      <c r="B732" s="3">
+      <c r="B732" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:2">
-      <c r="A733" s="2">
+      <c r="A733" s="3">
         <v>40252</v>
       </c>
-      <c r="B733" s="3">
+      <c r="B733" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:2">
-      <c r="A734" s="2">
+      <c r="A734" s="3">
         <v>40253</v>
       </c>
-      <c r="B734" s="3">
+      <c r="B734" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:2">
-      <c r="A735" s="2">
+      <c r="A735" s="3">
         <v>40254</v>
       </c>
-      <c r="B735" s="3">
+      <c r="B735" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:2">
-      <c r="A736" s="2">
+      <c r="A736" s="3">
         <v>40255</v>
       </c>
-      <c r="B736" s="3">
+      <c r="B736" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:2">
-      <c r="A737" s="2">
+      <c r="A737" s="3">
         <v>40256</v>
       </c>
-      <c r="B737" s="3">
+      <c r="B737" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:2">
-      <c r="A738" s="2">
+      <c r="A738" s="3">
         <v>40257</v>
       </c>
-      <c r="B738" s="3">
+      <c r="B738" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:2">
-      <c r="A739" s="2">
+      <c r="A739" s="3">
         <v>40258</v>
       </c>
-      <c r="B739" s="3">
+      <c r="B739" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:2">
-      <c r="A740" s="2">
+      <c r="A740" s="3">
         <v>40259</v>
       </c>
-      <c r="B740" s="3">
+      <c r="B740" s="2">
         <v>29.21</v>
       </c>
     </row>
     <row r="741" spans="1:2">
-      <c r="A741" s="2">
+      <c r="A741" s="3">
         <v>40260</v>
       </c>
-      <c r="B741" s="3">
+      <c r="B741" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:2">
-      <c r="A742" s="2">
+      <c r="A742" s="3">
         <v>40261</v>
       </c>
-      <c r="B742" s="3">
+      <c r="B742" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:2">
-      <c r="A743" s="2">
+      <c r="A743" s="3">
         <v>40262</v>
       </c>
-      <c r="B743" s="3">
+      <c r="B743" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:2">
-      <c r="A744" s="2">
+      <c r="A744" s="3">
         <v>40263</v>
       </c>
-      <c r="B744" s="3">
+      <c r="B744" s="2">
         <v>3.302</v>
       </c>
     </row>
     <row r="745" spans="1:2">
-      <c r="A745" s="2">
+      <c r="A745" s="3">
         <v>40264</v>
       </c>
-      <c r="B745" s="3">
+      <c r="B745" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:2">
-      <c r="A746" s="2">
+      <c r="A746" s="3">
         <v>40265</v>
       </c>
-      <c r="B746" s="3">
+      <c r="B746" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:2">
-      <c r="A747" s="2">
+      <c r="A747" s="3">
         <v>40266</v>
       </c>
-      <c r="B747" s="3">
+      <c r="B747" s="2">
         <v>94.2</v>
       </c>
     </row>
     <row r="748" spans="1:2">
-      <c r="A748" s="2">
+      <c r="A748" s="3">
         <v>40267</v>
       </c>
-      <c r="B748" s="3">
+      <c r="B748" s="2">
         <v>1.27</v>
       </c>
     </row>
     <row r="749" spans="1:2">
-      <c r="A749" s="2">
+      <c r="A749" s="3">
         <v>40268</v>
       </c>
-      <c r="B749" s="3">
+      <c r="B749" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:2">
-      <c r="A750" s="2">
+      <c r="A750" s="3">
         <v>40269</v>
       </c>
-      <c r="B750" s="3">
+      <c r="B750" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:2">
-      <c r="A751" s="2">
+      <c r="A751" s="3">
         <v>40270</v>
       </c>
-      <c r="B751" s="3">
+      <c r="B751" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:2">
-      <c r="A752" s="2">
+      <c r="A752" s="3">
         <v>40271</v>
       </c>
-      <c r="B752" s="3">
+      <c r="B752" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:2">
-      <c r="A753" s="2">
+      <c r="A753" s="3">
         <v>40272</v>
       </c>
-      <c r="B753" s="3">
+      <c r="B753" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:2">
-      <c r="A754" s="2">
+      <c r="A754" s="3">
         <v>40273</v>
       </c>
-      <c r="B754" s="3">
+      <c r="B754" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:2">
-      <c r="A755" s="2">
+      <c r="A755" s="3">
         <v>40274</v>
       </c>
-      <c r="B755" s="3">
+      <c r="B755" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:2">
-      <c r="A756" s="2">
+      <c r="A756" s="3">
         <v>40275</v>
       </c>
-      <c r="B756" s="3">
+      <c r="B756" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:2">
-      <c r="A757" s="2">
+      <c r="A757" s="3">
         <v>40276</v>
       </c>
-      <c r="B757" s="3">
+      <c r="B757" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:2">
-      <c r="A758" s="2">
+      <c r="A758" s="3">
         <v>40277</v>
       </c>
-      <c r="B758" s="3">
+      <c r="B758" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:2">
-      <c r="A759" s="2">
+      <c r="A759" s="3">
         <v>40278</v>
       </c>
-      <c r="B759" s="3">
+      <c r="B759" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:2">
-      <c r="A760" s="2">
+      <c r="A760" s="3">
         <v>40279</v>
       </c>
-      <c r="B760" s="3">
+      <c r="B760" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:2">
-      <c r="A761" s="2">
+      <c r="A761" s="3">
         <v>40280</v>
       </c>
-      <c r="B761" s="3">
+      <c r="B761" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="762" spans="1:2">
-      <c r="A762" s="2">
+      <c r="A762" s="3">
         <v>40281</v>
       </c>
-      <c r="B762" s="3">
+      <c r="B762" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="763" spans="1:2">
-      <c r="A763" s="2">
+      <c r="A763" s="3">
         <v>40282</v>
       </c>
-      <c r="B763" s="3">
+      <c r="B763" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:2">
-      <c r="A764" s="2">
+      <c r="A764" s="3">
         <v>40283</v>
       </c>
-      <c r="B764" s="3">
+      <c r="B764" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:2">
-      <c r="A765" s="2">
+      <c r="A765" s="3">
         <v>40284</v>
       </c>
-      <c r="B765" s="3">
+      <c r="B765" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:2">
-      <c r="A766" s="2">
+      <c r="A766" s="3">
         <v>40285</v>
       </c>
-      <c r="B766" s="3">
+      <c r="B766" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:2">
-      <c r="A767" s="2">
+      <c r="A767" s="3">
         <v>40286</v>
       </c>
-      <c r="B767" s="3">
+      <c r="B767" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="768" spans="1:2">
-      <c r="A768" s="2">
+      <c r="A768" s="3">
         <v>40287</v>
       </c>
-      <c r="B768" s="3">
+      <c r="B768" s="2">
         <v>9.91</v>
       </c>
     </row>
     <row r="769" spans="1:2">
-      <c r="A769" s="2">
+      <c r="A769" s="3">
         <v>40288</v>
       </c>
-      <c r="B769" s="3">
+      <c r="B769" s="2">
         <v>1.524</v>
       </c>
     </row>
     <row r="770" spans="1:2">
-      <c r="A770" s="2">
+      <c r="A770" s="3">
         <v>40289</v>
       </c>
-      <c r="B770" s="3">
+      <c r="B770" s="2">
         <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="771" spans="1:2">
-      <c r="A771" s="2">
+      <c r="A771" s="3">
         <v>40290</v>
       </c>
-      <c r="B771" s="3">
+      <c r="B771" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="772" spans="1:2">
-      <c r="A772" s="2">
+      <c r="A772" s="3">
         <v>40291</v>
       </c>
-      <c r="B772" s="3">
+      <c r="B772" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:2">
-      <c r="A773" s="2">
+      <c r="A773" s="3">
         <v>40292</v>
       </c>
-      <c r="B773" s="3">
+      <c r="B773" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:2">
-      <c r="A774" s="2">
+      <c r="A774" s="3">
         <v>40293</v>
       </c>
-      <c r="B774" s="3">
+      <c r="B774" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:2">
-      <c r="A775" s="2">
+      <c r="A775" s="3">
         <v>40294</v>
       </c>
-      <c r="B775" s="3">
+      <c r="B775" s="2">
         <v>36.32</v>
       </c>
     </row>
     <row r="776" spans="1:2">
-      <c r="A776" s="2">
+      <c r="A776" s="3">
         <v>40295</v>
       </c>
-      <c r="B776" s="3">
+      <c r="B776" s="2">
         <v>0.254</v>
       </c>
     </row>
     <row r="777" spans="1:2">
-      <c r="A777" s="2">
+      <c r="A777" s="3">
         <v>40296</v>
       </c>
-      <c r="B777" s="3">
+      <c r="B777" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:2">
-      <c r="A778" s="2">
+      <c r="A778" s="3">
         <v>40297</v>
       </c>
-      <c r="B778" s="3">
+      <c r="B778" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:2">
-      <c r="A779" s="2">
+      <c r="A779" s="3">
         <v>40298</v>
       </c>
-      <c r="B779" s="3">
+      <c r="B779" s="2">
         <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="780" spans="1:2">
-      <c r="A780" s="2">
+      <c r="A780" s="3">
         <v>40299</v>
       </c>
-      <c r="B780" s="3">
+      <c r="B780" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:2">
-      <c r="A781" s="2">
+      <c r="A781" s="3">
         <v>40300</v>
       </c>
-      <c r="B781" s="3">
+      <c r="B781" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:2">
-      <c r="A782" s="2">
+      <c r="A782" s="3">
         <v>40301</v>
       </c>
-      <c r="B782" s="3">
+      <c r="B782" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:2">
-      <c r="A783" s="2">
+      <c r="A783" s="3">
         <v>40302</v>
       </c>
-      <c r="B783" s="3">
+      <c r="B783" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:2">
-      <c r="A784" s="2">
+      <c r="A784" s="3">
         <v>40303</v>
       </c>
-      <c r="B784" s="3">
+      <c r="B784" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:2">
-      <c r="A785" s="2">
+      <c r="A785" s="3">
         <v>40304</v>
       </c>
-      <c r="B785" s="3">
+      <c r="B785" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:2">
-      <c r="A786" s="2">
+      <c r="A786" s="3">
         <v>40305</v>
       </c>
-      <c r="B786" s="3">
+      <c r="B786" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:2">
-      <c r="A787" s="2">
+      <c r="A787" s="3">
         <v>40306</v>
       </c>
-      <c r="B787" s="3">
+      <c r="B787" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:2">
-      <c r="A788" s="2">
+      <c r="A788" s="3">
         <v>40307</v>
       </c>
-      <c r="B788" s="3">
+      <c r="B788" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:2">
-      <c r="A789" s="2">
+      <c r="A789" s="3">
         <v>40308</v>
       </c>
-      <c r="B789" s="3">
+      <c r="B789" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:2">
-      <c r="A790" s="2">
+      <c r="A790" s="3">
         <v>40309</v>
       </c>
-      <c r="B790" s="3">
+      <c r="B790" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:2">
-      <c r="A791" s="2">
+      <c r="A791" s="3">
         <v>40310</v>
       </c>
-      <c r="B791" s="3">
+      <c r="B791" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:2">
-      <c r="A792" s="2">
+      <c r="A792" s="3">
         <v>40311</v>
       </c>
-      <c r="B792" s="3">
+      <c r="B792" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:2">
-      <c r="A793" s="2">
+      <c r="A793" s="3">
         <v>40312</v>
       </c>
-      <c r="B793" s="3">
+      <c r="B793" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:2">
-      <c r="A794" s="2">
+      <c r="A794" s="3">
         <v>40313</v>
       </c>
-      <c r="B794" s="3">
+      <c r="B794" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:2">
-      <c r="A795" s="2">
+      <c r="A795" s="3">
         <v>40314</v>
       </c>
-      <c r="B795" s="3">
+      <c r="B795" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:2">
-      <c r="A796" s="2">
+      <c r="A796" s="3">
         <v>40315</v>
       </c>
-      <c r="B796" s="3">
+      <c r="B796" s="2">
         <v>5.8419999999999996</v>
       </c>
     </row>
